--- a/teaching/traditional_assets/database/data/malta/malta_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/malta/malta_entertainment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="xtra_m8g" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.05748865355521936</v>
+        <v>0.07444794952681388</v>
       </c>
       <c r="H2">
-        <v>0.05748865355521936</v>
+        <v>0.07444794952681388</v>
       </c>
       <c r="I2">
-        <v>-0.04024205748865356</v>
+        <v>0.03413249211356467</v>
       </c>
       <c r="J2">
-        <v>-0.04024205748865356</v>
+        <v>0.03413249211356467</v>
       </c>
       <c r="K2">
-        <v>-1.34</v>
+        <v>0.436</v>
       </c>
       <c r="L2">
-        <v>-0.02027231467473525</v>
+        <v>0.002750788643533123</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>29.9</v>
+        <v>12.8</v>
       </c>
       <c r="V2">
-        <v>0.3509389671361502</v>
+        <v>0.05412262156448203</v>
       </c>
       <c r="W2">
-        <v>-0.02612085769980507</v>
+        <v>0.005525982256020278</v>
       </c>
       <c r="X2">
-        <v>0.1217655968009736</v>
+        <v>0.068376395248437</v>
       </c>
       <c r="Y2">
-        <v>-0.1478864545007786</v>
+        <v>-0.06285041299241673</v>
       </c>
       <c r="Z2">
-        <v>-0.7638086434018949</v>
+        <v>-2.876588021778585</v>
       </c>
       <c r="AA2">
-        <v>0.03073723133810954</v>
+        <v>-0.09818511796733213</v>
       </c>
       <c r="AB2">
-        <v>0.0828481941815373</v>
+        <v>0.06654389006255605</v>
       </c>
       <c r="AC2">
-        <v>-0.05211096284342775</v>
+        <v>-0.1647290080298882</v>
       </c>
       <c r="AD2">
-        <v>59.2</v>
+        <v>8.81</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.2</v>
+        <v>8.81</v>
       </c>
       <c r="AG2">
-        <v>29.3</v>
+        <v>-3.99</v>
       </c>
       <c r="AH2">
-        <v>0.4099722991689751</v>
+        <v>0.03591374179609474</v>
       </c>
       <c r="AI2">
-        <v>0.2445270549359768</v>
+        <v>0.04595482760419384</v>
       </c>
       <c r="AJ2">
-        <v>0.2558951965065502</v>
+        <v>-0.01716055223431251</v>
       </c>
       <c r="AK2">
-        <v>0.1380772855796419</v>
+        <v>-0.02230171594656532</v>
       </c>
       <c r="AL2">
-        <v>3.85</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AM2">
-        <v>3.686</v>
+        <v>8.693</v>
       </c>
       <c r="AN2">
-        <v>8.80952380952381</v>
+        <v>0.4636842105263158</v>
       </c>
       <c r="AO2">
-        <v>-0.6909090909090909</v>
+        <v>0.61547212741752</v>
       </c>
       <c r="AP2">
-        <v>4.360119047619048</v>
+        <v>-0.21</v>
       </c>
       <c r="AQ2">
-        <v>-0.7216494845360826</v>
+        <v>0.6223398136431612</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.05748865355521936</v>
+        <v>0.07444794952681388</v>
       </c>
       <c r="H3">
-        <v>0.05748865355521936</v>
+        <v>0.07444794952681388</v>
       </c>
       <c r="I3">
-        <v>-0.04024205748865356</v>
+        <v>0.03413249211356467</v>
       </c>
       <c r="J3">
-        <v>-0.04024205748865356</v>
+        <v>0.03413249211356467</v>
       </c>
       <c r="K3">
-        <v>-1.34</v>
+        <v>0.436</v>
       </c>
       <c r="L3">
-        <v>-0.02027231467473525</v>
+        <v>0.002750788643533123</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>29.9</v>
+        <v>12.8</v>
       </c>
       <c r="V3">
-        <v>0.3509389671361502</v>
+        <v>0.05412262156448203</v>
       </c>
       <c r="W3">
-        <v>-0.02612085769980507</v>
+        <v>0.005525982256020278</v>
       </c>
       <c r="X3">
-        <v>0.1217655968009736</v>
+        <v>0.068376395248437</v>
       </c>
       <c r="Y3">
-        <v>-0.1478864545007786</v>
+        <v>-0.06285041299241673</v>
       </c>
       <c r="Z3">
-        <v>-0.7638086434018949</v>
+        <v>-2.876588021778585</v>
       </c>
       <c r="AA3">
-        <v>0.03073723133810954</v>
+        <v>-0.09818511796733213</v>
       </c>
       <c r="AB3">
-        <v>0.0828481941815373</v>
+        <v>0.06654389006255605</v>
       </c>
       <c r="AC3">
-        <v>-0.05211096284342775</v>
+        <v>-0.1647290080298882</v>
       </c>
       <c r="AD3">
-        <v>59.2</v>
+        <v>8.81</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>59.2</v>
+        <v>8.81</v>
       </c>
       <c r="AG3">
-        <v>29.3</v>
+        <v>-3.99</v>
       </c>
       <c r="AH3">
-        <v>0.4099722991689751</v>
+        <v>0.03591374179609474</v>
       </c>
       <c r="AI3">
-        <v>0.2445270549359768</v>
+        <v>0.04595482760419384</v>
       </c>
       <c r="AJ3">
-        <v>0.2558951965065502</v>
+        <v>-0.01716055223431251</v>
       </c>
       <c r="AK3">
-        <v>0.1380772855796419</v>
+        <v>-0.02230171594656532</v>
       </c>
       <c r="AL3">
-        <v>3.85</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AM3">
-        <v>3.686</v>
+        <v>8.693</v>
       </c>
       <c r="AN3">
-        <v>8.80952380952381</v>
+        <v>0.4636842105263158</v>
       </c>
       <c r="AO3">
-        <v>-0.6909090909090909</v>
+        <v>0.61547212741752</v>
       </c>
       <c r="AP3">
-        <v>4.360119047619048</v>
+        <v>-0.21</v>
       </c>
       <c r="AQ3">
-        <v>-0.7216494845360826</v>
+        <v>0.6223398136431612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Media and Games Invest plc (XTRA:M8G)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>XTRA:M8G</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0359137417960947</v>
+      </c>
+      <c r="F2">
+        <v>0.13</v>
+      </c>
+      <c r="G2">
+        <v>236.5</v>
+      </c>
+      <c r="H2">
+        <v>217.380571892987</v>
+      </c>
+      <c r="I2">
+        <v>232.51</v>
+      </c>
+      <c r="J2">
+        <v>236.470871892987</v>
+      </c>
+      <c r="K2">
+        <v>8.81</v>
+      </c>
+      <c r="L2">
+        <v>31.8903</v>
+      </c>
+      <c r="M2">
+        <v>0.06654389006255609</v>
+      </c>
+      <c r="N2">
+        <v>0.06505603521759901</v>
+      </c>
+      <c r="O2">
+        <v>0.0173512139603035</v>
+      </c>
+      <c r="P2">
+        <v>0.01469</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.068376395248437</v>
+      </c>
+      <c r="T2">
+        <v>0.0725819945029873</v>
+      </c>
+      <c r="U2">
+        <v>1.0661099608046</v>
+      </c>
+      <c r="V2">
+        <v>1.14200543881359</v>
+      </c>
+      <c r="W2">
+        <v>4.717499611985659</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>236.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.05541304126250898</v>
+      </c>
+      <c r="AC2">
+        <v>0.0266941753235439</v>
+      </c>
+      <c r="AD2">
+        <v>0.35</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>19</v>
+      </c>
+      <c r="AH2">
+        <v>15.6</v>
+      </c>
+      <c r="AI2">
+        <v>-3.314000000000003</v>
+      </c>
+      <c r="AJ2">
+        <v>8.81</v>
+      </c>
+      <c r="AK2">
+        <v>8.81</v>
+      </c>
+      <c r="AL2">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>8.81</v>
+      </c>
+      <c r="AN2">
+        <v>12.8</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06697976450246092</v>
+      </c>
+      <c r="C2">
+        <v>244.174650018662</v>
+      </c>
+      <c r="D2">
+        <v>231.374650018662</v>
+      </c>
+      <c r="E2">
+        <v>-8.81</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12.8</v>
+      </c>
+      <c r="H2">
+        <v>236.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>15.6</v>
+      </c>
+      <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3.4</v>
+      </c>
+      <c r="O2">
+        <v>1.19</v>
+      </c>
+      <c r="P2">
+        <v>2.21</v>
+      </c>
+      <c r="Q2">
+        <v>17.81</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06697976450246092</v>
+      </c>
+      <c r="T2">
+        <v>1.040905952611656</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.35</v>
+      </c>
+      <c r="W2">
+        <v>0.01053</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06679018532670231</v>
+      </c>
+      <c r="C3">
+        <v>242.2139935847637</v>
+      </c>
+      <c r="D3">
+        <v>231.8670935847637</v>
+      </c>
+      <c r="E3">
+        <v>-6.3569</v>
+      </c>
+      <c r="F3">
+        <v>2.4531</v>
+      </c>
+      <c r="G3">
+        <v>12.8</v>
+      </c>
+      <c r="H3">
+        <v>236.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>15.6</v>
+      </c>
+      <c r="L3">
+        <v>3.4</v>
+      </c>
+      <c r="M3">
+        <v>0.03974022</v>
+      </c>
+      <c r="N3">
+        <v>3.36025978</v>
+      </c>
+      <c r="O3">
+        <v>1.176090923</v>
+      </c>
+      <c r="P3">
+        <v>2.184168857</v>
+      </c>
+      <c r="Q3">
+        <v>17.784168857</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06735847002697203</v>
+      </c>
+      <c r="T3">
+        <v>1.047740183613652</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.35</v>
+      </c>
+      <c r="W3">
+        <v>0.01053</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>85.55564111119668</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06660060615094369</v>
+      </c>
+      <c r="C4">
+        <v>240.2554377949082</v>
+      </c>
+      <c r="D4">
+        <v>232.3616377949082</v>
+      </c>
+      <c r="E4">
+        <v>-3.9038</v>
+      </c>
+      <c r="F4">
+        <v>4.9062</v>
+      </c>
+      <c r="G4">
+        <v>12.8</v>
+      </c>
+      <c r="H4">
+        <v>236.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>15.6</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>0.07948044</v>
+      </c>
+      <c r="N4">
+        <v>3.32051956</v>
+      </c>
+      <c r="O4">
+        <v>1.162181846</v>
+      </c>
+      <c r="P4">
+        <v>2.158337714</v>
+      </c>
+      <c r="Q4">
+        <v>17.758337714</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06774490423565682</v>
+      </c>
+      <c r="T4">
+        <v>1.054713888717729</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.35</v>
+      </c>
+      <c r="W4">
+        <v>0.01053</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>42.77782055559834</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06641102697518506</v>
+      </c>
+      <c r="C5">
+        <v>238.2989961190776</v>
+      </c>
+      <c r="D5">
+        <v>232.8582961190776</v>
+      </c>
+      <c r="E5">
+        <v>-1.4507</v>
+      </c>
+      <c r="F5">
+        <v>7.3593</v>
+      </c>
+      <c r="G5">
+        <v>12.8</v>
+      </c>
+      <c r="H5">
+        <v>236.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>15.6</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>0.11922066</v>
+      </c>
+      <c r="N5">
+        <v>3.28077934</v>
+      </c>
+      <c r="O5">
+        <v>1.148272769</v>
+      </c>
+      <c r="P5">
+        <v>2.132506571</v>
+      </c>
+      <c r="Q5">
+        <v>17.732506571</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06813930615998461</v>
+      </c>
+      <c r="T5">
+        <v>1.061831381555911</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.35</v>
+      </c>
+      <c r="W5">
+        <v>0.01053</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>28.51854703706556</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06622144779942646</v>
+      </c>
+      <c r="C6">
+        <v>236.3446821426651</v>
+      </c>
+      <c r="D6">
+        <v>233.3570821426651</v>
+      </c>
+      <c r="E6">
+        <v>1.0024</v>
+      </c>
+      <c r="F6">
+        <v>9.8124</v>
+      </c>
+      <c r="G6">
+        <v>12.8</v>
+      </c>
+      <c r="H6">
+        <v>236.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>15.6</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>0.15896088</v>
+      </c>
+      <c r="N6">
+        <v>3.24103912</v>
+      </c>
+      <c r="O6">
+        <v>1.134363692</v>
+      </c>
+      <c r="P6">
+        <v>2.106675428</v>
+      </c>
+      <c r="Q6">
+        <v>17.706675428</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06854192479106923</v>
+      </c>
+      <c r="T6">
+        <v>1.069097155494888</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.35</v>
+      </c>
+      <c r="W6">
+        <v>0.01053</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>21.38891027779917</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06603186862366785</v>
+      </c>
+      <c r="C7">
+        <v>234.3925095677148</v>
+      </c>
+      <c r="D7">
+        <v>233.8580095677148</v>
+      </c>
+      <c r="E7">
+        <v>3.455500000000001</v>
+      </c>
+      <c r="F7">
+        <v>12.2655</v>
+      </c>
+      <c r="G7">
+        <v>12.8</v>
+      </c>
+      <c r="H7">
+        <v>236.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>15.6</v>
+      </c>
+      <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>0.1987011</v>
+      </c>
+      <c r="N7">
+        <v>3.2012989</v>
+      </c>
+      <c r="O7">
+        <v>1.120454615</v>
+      </c>
+      <c r="P7">
+        <v>2.080844285</v>
+      </c>
+      <c r="Q7">
+        <v>17.680844285</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0689530196038609</v>
+      </c>
+      <c r="T7">
+        <v>1.076515893095739</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.35</v>
+      </c>
+      <c r="W7">
+        <v>0.01053</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>17.11112822223933</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06584228944790924</v>
+      </c>
+      <c r="C8">
+        <v>232.4424922141754</v>
+      </c>
+      <c r="D8">
+        <v>234.3610922141754</v>
+      </c>
+      <c r="E8">
+        <v>5.9086</v>
+      </c>
+      <c r="F8">
+        <v>14.7186</v>
+      </c>
+      <c r="G8">
+        <v>12.8</v>
+      </c>
+      <c r="H8">
+        <v>236.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>15.6</v>
+      </c>
+      <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>0.23844132</v>
+      </c>
+      <c r="N8">
+        <v>3.16155868</v>
+      </c>
+      <c r="O8">
+        <v>1.106545538</v>
+      </c>
+      <c r="P8">
+        <v>2.055013142</v>
+      </c>
+      <c r="Q8">
+        <v>17.655013142</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06937286111479707</v>
+      </c>
+      <c r="T8">
+        <v>1.084092476177459</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.35</v>
+      </c>
+      <c r="W8">
+        <v>0.01053</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>14.25927351853278</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06572551027215061</v>
+      </c>
+      <c r="C9">
+        <v>230.3003656262624</v>
+      </c>
+      <c r="D9">
+        <v>234.6720656262624</v>
+      </c>
+      <c r="E9">
+        <v>8.361700000000001</v>
+      </c>
+      <c r="F9">
+        <v>17.1717</v>
+      </c>
+      <c r="G9">
+        <v>12.8</v>
+      </c>
+      <c r="H9">
+        <v>236.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>15.6</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+      <c r="M9">
+        <v>0.30565626</v>
+      </c>
+      <c r="N9">
+        <v>3.09434374</v>
+      </c>
+      <c r="O9">
+        <v>1.083020309</v>
+      </c>
+      <c r="P9">
+        <v>2.011323431</v>
+      </c>
+      <c r="Q9">
+        <v>17.611323431</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06980173147543077</v>
+      </c>
+      <c r="T9">
+        <v>1.091831996529753</v>
+      </c>
+      <c r="U9">
+        <v>0.0178</v>
+      </c>
+      <c r="V9">
+        <v>0.35</v>
+      </c>
+      <c r="W9">
+        <v>0.01157</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>11.12360662922461</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.06566073109639201</v>
+      </c>
+      <c r="C10">
+        <v>228.0201234075427</v>
+      </c>
+      <c r="D10">
+        <v>234.8449234075426</v>
+      </c>
+      <c r="E10">
+        <v>10.8148</v>
+      </c>
+      <c r="F10">
+        <v>19.6248</v>
+      </c>
+      <c r="G10">
+        <v>12.8</v>
+      </c>
+      <c r="H10">
+        <v>236.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>15.6</v>
+      </c>
+      <c r="L10">
+        <v>3.4</v>
+      </c>
+      <c r="M10">
+        <v>0.392496</v>
+      </c>
+      <c r="N10">
+        <v>3.007504</v>
+      </c>
+      <c r="O10">
+        <v>1.0526264</v>
+      </c>
+      <c r="P10">
+        <v>1.9548776</v>
+      </c>
+      <c r="Q10">
+        <v>17.5548776</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07023992510477392</v>
+      </c>
+      <c r="T10">
+        <v>1.099739767324489</v>
+      </c>
+      <c r="U10">
+        <v>0.02</v>
+      </c>
+      <c r="V10">
+        <v>0.35</v>
+      </c>
+      <c r="W10">
+        <v>0.013</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>8.662508662508664</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06556020192063339</v>
+      </c>
+      <c r="C11">
+        <v>225.8357818680752</v>
+      </c>
+      <c r="D11">
+        <v>235.1136818680752</v>
+      </c>
+      <c r="E11">
+        <v>13.2679</v>
+      </c>
+      <c r="F11">
+        <v>22.0779</v>
+      </c>
+      <c r="G11">
+        <v>12.8</v>
+      </c>
+      <c r="H11">
+        <v>236.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>15.6</v>
+      </c>
+      <c r="L11">
+        <v>3.4</v>
+      </c>
+      <c r="M11">
+        <v>0.46584369</v>
+      </c>
+      <c r="N11">
+        <v>2.934156310000001</v>
+      </c>
+      <c r="O11">
+        <v>1.0269547085</v>
+      </c>
+      <c r="P11">
+        <v>1.9072016015</v>
+      </c>
+      <c r="Q11">
+        <v>17.5072016015</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0706877493633334</v>
+      </c>
+      <c r="T11">
+        <v>1.107821335279548</v>
+      </c>
+      <c r="U11">
+        <v>0.0211</v>
+      </c>
+      <c r="V11">
+        <v>0.35</v>
+      </c>
+      <c r="W11">
+        <v>0.013715</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>7.298585497637631</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06540247274487479</v>
+      </c>
+      <c r="C12">
+        <v>223.8056029039552</v>
+      </c>
+      <c r="D12">
+        <v>235.5366029039552</v>
+      </c>
+      <c r="E12">
+        <v>15.721</v>
+      </c>
+      <c r="F12">
+        <v>24.531</v>
+      </c>
+      <c r="G12">
+        <v>12.8</v>
+      </c>
+      <c r="H12">
+        <v>236.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>15.6</v>
+      </c>
+      <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>0.5176041000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.8823959</v>
+      </c>
+      <c r="O12">
+        <v>1.008838565</v>
+      </c>
+      <c r="P12">
+        <v>1.873557335</v>
+      </c>
+      <c r="Q12">
+        <v>17.473557335</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07114552527208309</v>
+      </c>
+      <c r="T12">
+        <v>1.116082493633609</v>
+      </c>
+      <c r="U12">
+        <v>0.0211</v>
+      </c>
+      <c r="V12">
+        <v>0.35</v>
+      </c>
+      <c r="W12">
+        <v>0.013715</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>6.568726947873866</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06535199356911618</v>
+      </c>
+      <c r="C13">
+        <v>221.4881748641568</v>
+      </c>
+      <c r="D13">
+        <v>235.6722748641568</v>
+      </c>
+      <c r="E13">
+        <v>18.1741</v>
+      </c>
+      <c r="F13">
+        <v>26.9841</v>
+      </c>
+      <c r="G13">
+        <v>12.8</v>
+      </c>
+      <c r="H13">
+        <v>236.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>15.6</v>
+      </c>
+      <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
+        <v>0.60984066</v>
+      </c>
+      <c r="N13">
+        <v>2.79015934</v>
+      </c>
+      <c r="O13">
+        <v>0.976555769</v>
+      </c>
+      <c r="P13">
+        <v>1.813603571</v>
+      </c>
+      <c r="Q13">
+        <v>17.413603571</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07161358827990581</v>
+      </c>
+      <c r="T13">
+        <v>1.124529295995626</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.35</v>
+      </c>
+      <c r="W13">
+        <v>0.01469</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>5.575226814164868</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06520401439335756</v>
+      </c>
+      <c r="C14">
+        <v>219.4336979931312</v>
+      </c>
+      <c r="D14">
+        <v>236.0708979931312</v>
+      </c>
+      <c r="E14">
+        <v>20.6272</v>
+      </c>
+      <c r="F14">
+        <v>29.4372</v>
+      </c>
+      <c r="G14">
+        <v>12.8</v>
+      </c>
+      <c r="H14">
+        <v>236.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>15.6</v>
+      </c>
+      <c r="L14">
+        <v>3.4</v>
+      </c>
+      <c r="M14">
+        <v>0.6652807199999999</v>
+      </c>
+      <c r="N14">
+        <v>2.73471928</v>
+      </c>
+      <c r="O14">
+        <v>0.957151748</v>
+      </c>
+      <c r="P14">
+        <v>1.777567532</v>
+      </c>
+      <c r="Q14">
+        <v>17.377567532</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07209228908336086</v>
+      </c>
+      <c r="T14">
+        <v>1.133168071138599</v>
+      </c>
+      <c r="U14">
+        <v>0.0226</v>
+      </c>
+      <c r="V14">
+        <v>0.35</v>
+      </c>
+      <c r="W14">
+        <v>0.01469</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>5.110624579651129</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06505603521759895</v>
+      </c>
+      <c r="C15">
+        <v>217.3805718929869</v>
+      </c>
+      <c r="D15">
+        <v>236.4708718929868</v>
+      </c>
+      <c r="E15">
+        <v>23.0803</v>
+      </c>
+      <c r="F15">
+        <v>31.8903</v>
+      </c>
+      <c r="G15">
+        <v>12.8</v>
+      </c>
+      <c r="H15">
+        <v>236.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <v>15.6</v>
+      </c>
+      <c r="L15">
+        <v>3.4</v>
+      </c>
+      <c r="M15">
+        <v>0.7207207799999999</v>
+      </c>
+      <c r="N15">
+        <v>2.679279220000001</v>
+      </c>
+      <c r="O15">
+        <v>0.9377477270000002</v>
+      </c>
+      <c r="P15">
+        <v>1.741531493000001</v>
+      </c>
+      <c r="Q15">
+        <v>17.341531493</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.0725819945029873</v>
+      </c>
+      <c r="T15">
+        <v>1.142005438813593</v>
+      </c>
+      <c r="U15">
+        <v>0.0226</v>
+      </c>
+      <c r="V15">
+        <v>0.35</v>
+      </c>
+      <c r="W15">
+        <v>0.01469</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>4.717499611985659</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.0735197429780042</v>
+      </c>
+      <c r="C16">
+        <v>194.0365492361164</v>
+      </c>
+      <c r="D16">
+        <v>215.5799492361164</v>
+      </c>
+      <c r="E16">
+        <v>25.5334</v>
+      </c>
+      <c r="F16">
+        <v>34.3434</v>
+      </c>
+      <c r="G16">
+        <v>12.8</v>
+      </c>
+      <c r="H16">
+        <v>236.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>15.6</v>
+      </c>
+      <c r="L16">
+        <v>3.4</v>
+      </c>
+      <c r="M16">
+        <v>3.7434306</v>
+      </c>
+      <c r="N16">
+        <v>-0.3434306</v>
+      </c>
+      <c r="O16">
+        <v>-0.12020071</v>
+      </c>
+      <c r="P16">
+        <v>-0.22322989</v>
+      </c>
+      <c r="Q16">
+        <v>15.37677011</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07338459049884773</v>
+      </c>
+      <c r="T16">
+        <v>1.15648932162483</v>
+      </c>
+      <c r="U16">
+        <v>0.109</v>
+      </c>
+      <c r="V16">
+        <v>0.3178902261471069</v>
+      </c>
+      <c r="W16">
+        <v>0.07434996534996535</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.9082577889917339</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07451674297800419</v>
+      </c>
+      <c r="C17">
+        <v>189.3630728461467</v>
+      </c>
+      <c r="D17">
+        <v>213.3595728461467</v>
+      </c>
+      <c r="E17">
+        <v>27.9865</v>
+      </c>
+      <c r="F17">
+        <v>36.7965</v>
+      </c>
+      <c r="G17">
+        <v>12.8</v>
+      </c>
+      <c r="H17">
+        <v>236.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>15.6</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
+        <v>4.0108185</v>
+      </c>
+      <c r="N17">
+        <v>-0.6108184999999997</v>
+      </c>
+      <c r="O17">
+        <v>-0.2137864749999999</v>
+      </c>
+      <c r="P17">
+        <v>-0.3970320249999998</v>
+      </c>
+      <c r="Q17">
+        <v>15.202967975</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07413852685765769</v>
+      </c>
+      <c r="T17">
+        <v>1.170095078349828</v>
+      </c>
+      <c r="U17">
+        <v>0.109</v>
+      </c>
+      <c r="V17">
+        <v>0.2966975444039664</v>
+      </c>
+      <c r="W17">
+        <v>0.07665996765996767</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.8477072697256184</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.08107700489106909</v>
+      </c>
+      <c r="C18">
+        <v>173.3681151925873</v>
+      </c>
+      <c r="D18">
+        <v>199.8177151925873</v>
+      </c>
+      <c r="E18">
+        <v>30.4396</v>
+      </c>
+      <c r="F18">
+        <v>39.2496</v>
+      </c>
+      <c r="G18">
+        <v>12.8</v>
+      </c>
+      <c r="H18">
+        <v>236.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>15.6</v>
+      </c>
+      <c r="L18">
+        <v>3.4</v>
+      </c>
+      <c r="M18">
+        <v>5.50279392</v>
+      </c>
+      <c r="N18">
+        <v>-2.10279392</v>
+      </c>
+      <c r="O18">
+        <v>-0.7359778719999999</v>
+      </c>
+      <c r="P18">
+        <v>-1.366816048</v>
+      </c>
+      <c r="Q18">
+        <v>14.233183952</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07559048778818325</v>
+      </c>
+      <c r="T18">
+        <v>1.196297591286217</v>
+      </c>
+      <c r="U18">
+        <v>0.1402</v>
+      </c>
+      <c r="V18">
+        <v>0.2162537825875915</v>
+      </c>
+      <c r="W18">
+        <v>0.1098812196812197</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.6178679502502613</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.08238600489106909</v>
+      </c>
+      <c r="C19">
+        <v>168.4160913216902</v>
+      </c>
+      <c r="D19">
+        <v>197.3187913216902</v>
+      </c>
+      <c r="E19">
+        <v>32.8927</v>
+      </c>
+      <c r="F19">
+        <v>41.7027</v>
+      </c>
+      <c r="G19">
+        <v>12.8</v>
+      </c>
+      <c r="H19">
+        <v>236.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>19</v>
+      </c>
+      <c r="K19">
+        <v>15.6</v>
+      </c>
+      <c r="L19">
+        <v>3.4</v>
+      </c>
+      <c r="M19">
+        <v>5.846718539999999</v>
+      </c>
+      <c r="N19">
+        <v>-2.446718539999999</v>
+      </c>
+      <c r="O19">
+        <v>-0.8563514889999997</v>
+      </c>
+      <c r="P19">
+        <v>-1.590367050999999</v>
+      </c>
+      <c r="Q19">
+        <v>14.009632949</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07638916836394451</v>
+      </c>
+      <c r="T19">
+        <v>1.210710815277618</v>
+      </c>
+      <c r="U19">
+        <v>0.1402</v>
+      </c>
+      <c r="V19">
+        <v>0.2035329718471449</v>
+      </c>
+      <c r="W19">
+        <v>0.1116646773470303</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.5815227767061284</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.08369500489106907</v>
+      </c>
+      <c r="C20">
+        <v>163.5257986118233</v>
+      </c>
+      <c r="D20">
+        <v>194.8815986118233</v>
+      </c>
+      <c r="E20">
+        <v>35.3458</v>
+      </c>
+      <c r="F20">
+        <v>44.1558</v>
+      </c>
+      <c r="G20">
+        <v>12.8</v>
+      </c>
+      <c r="H20">
+        <v>236.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>15.6</v>
+      </c>
+      <c r="L20">
+        <v>3.4</v>
+      </c>
+      <c r="M20">
+        <v>6.19064316</v>
+      </c>
+      <c r="N20">
+        <v>-2.790643159999999</v>
+      </c>
+      <c r="O20">
+        <v>-0.9767251059999996</v>
+      </c>
+      <c r="P20">
+        <v>-1.813918054</v>
+      </c>
+      <c r="Q20">
+        <v>13.786081946</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07720732895374868</v>
+      </c>
+      <c r="T20">
+        <v>1.225475581317588</v>
+      </c>
+      <c r="U20">
+        <v>0.1402</v>
+      </c>
+      <c r="V20">
+        <v>0.1922255845223035</v>
+      </c>
+      <c r="W20">
+        <v>0.113249973049973</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.5492159557780101</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.08500400489106907</v>
+      </c>
+      <c r="C21">
+        <v>158.6949775451596</v>
+      </c>
+      <c r="D21">
+        <v>192.5038775451596</v>
+      </c>
+      <c r="E21">
+        <v>37.7989</v>
+      </c>
+      <c r="F21">
+        <v>46.6089</v>
+      </c>
+      <c r="G21">
+        <v>12.8</v>
+      </c>
+      <c r="H21">
+        <v>236.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>15.6</v>
+      </c>
+      <c r="L21">
+        <v>3.4</v>
+      </c>
+      <c r="M21">
+        <v>6.53456778</v>
+      </c>
+      <c r="N21">
+        <v>-3.134567779999999</v>
+      </c>
+      <c r="O21">
+        <v>-1.097098723</v>
+      </c>
+      <c r="P21">
+        <v>-2.037469057</v>
+      </c>
+      <c r="Q21">
+        <v>13.562530943</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07804569103959745</v>
+      </c>
+      <c r="T21">
+        <v>1.240604909482003</v>
+      </c>
+      <c r="U21">
+        <v>0.1402</v>
+      </c>
+      <c r="V21">
+        <v>0.1821084484948139</v>
+      </c>
+      <c r="W21">
+        <v>0.1146683955210271</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.5203098528423253</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09548559788005567</v>
+      </c>
+      <c r="C22">
+        <v>139.1088136631618</v>
+      </c>
+      <c r="D22">
+        <v>175.3708136631618</v>
+      </c>
+      <c r="E22">
+        <v>40.252</v>
+      </c>
+      <c r="F22">
+        <v>49.062</v>
+      </c>
+      <c r="G22">
+        <v>12.8</v>
+      </c>
+      <c r="H22">
+        <v>236.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22">
+        <v>15.6</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>9.012689400000001</v>
+      </c>
+      <c r="N22">
+        <v>-5.612689400000001</v>
+      </c>
+      <c r="O22">
+        <v>-1.96444129</v>
+      </c>
+      <c r="P22">
+        <v>-3.648248110000001</v>
+      </c>
+      <c r="Q22">
+        <v>11.95175189</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07949575341382564</v>
+      </c>
+      <c r="T22">
+        <v>1.266773160514441</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.1320360601797727</v>
+      </c>
+      <c r="W22">
+        <v>0.1594449757449757</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.3772458862279221</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09722959788005564</v>
+      </c>
+      <c r="C23">
+        <v>134.0966098225333</v>
+      </c>
+      <c r="D23">
+        <v>172.8117098225332</v>
+      </c>
+      <c r="E23">
+        <v>42.70509999999999</v>
+      </c>
+      <c r="F23">
+        <v>51.5151</v>
+      </c>
+      <c r="G23">
+        <v>12.8</v>
+      </c>
+      <c r="H23">
+        <v>236.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>15.6</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>9.46332387</v>
+      </c>
+      <c r="N23">
+        <v>-6.06332387</v>
+      </c>
+      <c r="O23">
+        <v>-2.1221633545</v>
+      </c>
+      <c r="P23">
+        <v>-3.9411605155</v>
+      </c>
+      <c r="Q23">
+        <v>11.6588394845</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08038430725450696</v>
+      </c>
+      <c r="T23">
+        <v>1.282808263812092</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.1257486287426407</v>
+      </c>
+      <c r="W23">
+        <v>0.1605999768999769</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.359281796407545</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09897359788005566</v>
+      </c>
+      <c r="C24">
+        <v>129.1580193748517</v>
+      </c>
+      <c r="D24">
+        <v>170.3262193748517</v>
+      </c>
+      <c r="E24">
+        <v>45.1582</v>
+      </c>
+      <c r="F24">
+        <v>53.9682</v>
+      </c>
+      <c r="G24">
+        <v>12.8</v>
+      </c>
+      <c r="H24">
+        <v>236.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>19</v>
+      </c>
+      <c r="K24">
+        <v>15.6</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>9.913958340000001</v>
+      </c>
+      <c r="N24">
+        <v>-6.51395834</v>
+      </c>
+      <c r="O24">
+        <v>-2.279885419</v>
+      </c>
+      <c r="P24">
+        <v>-4.234072921000001</v>
+      </c>
+      <c r="Q24">
+        <v>11.365927079</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08129564452700065</v>
+      </c>
+      <c r="T24">
+        <v>1.299254523604555</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.1200327819816116</v>
+      </c>
+      <c r="W24">
+        <v>0.161649977949978</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.3429508056617474</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1007175978800557</v>
+      </c>
+      <c r="C25">
+        <v>124.2899110883911</v>
+      </c>
+      <c r="D25">
+        <v>167.911211088391</v>
+      </c>
+      <c r="E25">
+        <v>47.6113</v>
+      </c>
+      <c r="F25">
+        <v>56.4213</v>
+      </c>
+      <c r="G25">
+        <v>12.8</v>
+      </c>
+      <c r="H25">
+        <v>236.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>15.6</v>
+      </c>
+      <c r="L25">
+        <v>3.4</v>
+      </c>
+      <c r="M25">
+        <v>10.36459281</v>
+      </c>
+      <c r="N25">
+        <v>-6.964592810000001</v>
+      </c>
+      <c r="O25">
+        <v>-2.4376074835</v>
+      </c>
+      <c r="P25">
+        <v>-4.5269853265</v>
+      </c>
+      <c r="Q25">
+        <v>11.0730146735</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08223065289748117</v>
+      </c>
+      <c r="T25">
+        <v>1.316127958976043</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.1148139653737154</v>
+      </c>
+      <c r="W25">
+        <v>0.1626086745608485</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.3280399010677584</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1024615978800557</v>
+      </c>
+      <c r="C26">
+        <v>119.4893288361336</v>
+      </c>
+      <c r="D26">
+        <v>165.5637288361335</v>
+      </c>
+      <c r="E26">
+        <v>50.0644</v>
+      </c>
+      <c r="F26">
+        <v>58.8744</v>
+      </c>
+      <c r="G26">
+        <v>12.8</v>
+      </c>
+      <c r="H26">
+        <v>236.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>19</v>
+      </c>
+      <c r="K26">
+        <v>15.6</v>
+      </c>
+      <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>10.81522728</v>
+      </c>
+      <c r="N26">
+        <v>-7.41522728</v>
+      </c>
+      <c r="O26">
+        <v>-2.595329548</v>
+      </c>
+      <c r="P26">
+        <v>-4.819897732</v>
+      </c>
+      <c r="Q26">
+        <v>10.780102268</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08319026675139542</v>
+      </c>
+      <c r="T26">
+        <v>1.333445432120465</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.1100300501498106</v>
+      </c>
+      <c r="W26">
+        <v>0.1634874797874798</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.3143715718566018</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1042055978800557</v>
+      </c>
+      <c r="C27">
+        <v>114.7534795242804</v>
+      </c>
+      <c r="D27">
+        <v>163.2809795242804</v>
+      </c>
+      <c r="E27">
+        <v>52.5175</v>
+      </c>
+      <c r="F27">
+        <v>61.3275</v>
+      </c>
+      <c r="G27">
+        <v>12.8</v>
+      </c>
+      <c r="H27">
+        <v>236.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>19</v>
+      </c>
+      <c r="K27">
+        <v>15.6</v>
+      </c>
+      <c r="L27">
+        <v>3.4</v>
+      </c>
+      <c r="M27">
+        <v>11.26586175</v>
+      </c>
+      <c r="N27">
+        <v>-7.865861750000001</v>
+      </c>
+      <c r="O27">
+        <v>-2.7530516125</v>
+      </c>
+      <c r="P27">
+        <v>-5.1128101375</v>
+      </c>
+      <c r="Q27">
+        <v>10.4871898625</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08417547030808067</v>
+      </c>
+      <c r="T27">
+        <v>1.351224704548737</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.1056288481438182</v>
+      </c>
+      <c r="W27">
+        <v>0.1642959805959806</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.3017967089823377</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1059495978800556</v>
+      </c>
+      <c r="C28">
+        <v>110.079722005812</v>
+      </c>
+      <c r="D28">
+        <v>161.060322005812</v>
+      </c>
+      <c r="E28">
+        <v>54.9706</v>
+      </c>
+      <c r="F28">
+        <v>63.7806</v>
+      </c>
+      <c r="G28">
+        <v>12.8</v>
+      </c>
+      <c r="H28">
+        <v>236.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>15.6</v>
+      </c>
+      <c r="L28">
+        <v>3.4</v>
+      </c>
+      <c r="M28">
+        <v>11.71649622</v>
+      </c>
+      <c r="N28">
+        <v>-8.316496219999999</v>
+      </c>
+      <c r="O28">
+        <v>-2.910773676999999</v>
+      </c>
+      <c r="P28">
+        <v>-5.405722543</v>
+      </c>
+      <c r="Q28">
+        <v>10.194277457</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0851873009879196</v>
+      </c>
+      <c r="T28">
+        <v>1.36948449785345</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.1015662001382868</v>
+      </c>
+      <c r="W28">
+        <v>0.1650422890345967</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2901891432522479</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1076935978800557</v>
+      </c>
+      <c r="C29">
+        <v>105.4655568865784</v>
+      </c>
+      <c r="D29">
+        <v>158.8992568865783</v>
+      </c>
+      <c r="E29">
+        <v>57.4237</v>
+      </c>
+      <c r="F29">
+        <v>66.2337</v>
+      </c>
+      <c r="G29">
+        <v>12.8</v>
+      </c>
+      <c r="H29">
+        <v>236.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>19</v>
+      </c>
+      <c r="K29">
+        <v>15.6</v>
+      </c>
+      <c r="L29">
+        <v>3.4</v>
+      </c>
+      <c r="M29">
+        <v>12.16713069</v>
+      </c>
+      <c r="N29">
+        <v>-8.76713069</v>
+      </c>
+      <c r="O29">
+        <v>-3.0684957415</v>
+      </c>
+      <c r="P29">
+        <v>-5.698634948500001</v>
+      </c>
+      <c r="Q29">
+        <v>9.901365051499999</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08622685305624728</v>
+      </c>
+      <c r="T29">
+        <v>1.388244559467881</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.09780448902205389</v>
+      </c>
+      <c r="W29">
+        <v>0.1657333153666487</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2794413972058682</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1094375978800557</v>
+      </c>
+      <c r="C30">
+        <v>100.9086171411983</v>
+      </c>
+      <c r="D30">
+        <v>156.7954171411983</v>
+      </c>
+      <c r="E30">
+        <v>59.8768</v>
+      </c>
+      <c r="F30">
+        <v>68.68680000000001</v>
+      </c>
+      <c r="G30">
+        <v>12.8</v>
+      </c>
+      <c r="H30">
+        <v>236.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>19</v>
+      </c>
+      <c r="K30">
+        <v>15.6</v>
+      </c>
+      <c r="L30">
+        <v>3.4</v>
+      </c>
+      <c r="M30">
+        <v>12.61776516</v>
+      </c>
+      <c r="N30">
+        <v>-9.217765160000001</v>
+      </c>
+      <c r="O30">
+        <v>-3.226217806</v>
+      </c>
+      <c r="P30">
+        <v>-5.991547354000001</v>
+      </c>
+      <c r="Q30">
+        <v>9.608452646</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08729528157091739</v>
+      </c>
+      <c r="T30">
+        <v>1.407525733904935</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.09431147155698054</v>
+      </c>
+      <c r="W30">
+        <v>0.1663749826749827</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2694613473056587</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1111815978800557</v>
+      </c>
+      <c r="C31">
+        <v>96.40665946469564</v>
+      </c>
+      <c r="D31">
+        <v>154.7465594646956</v>
+      </c>
+      <c r="E31">
+        <v>62.32989999999999</v>
+      </c>
+      <c r="F31">
+        <v>71.1399</v>
+      </c>
+      <c r="G31">
+        <v>12.8</v>
+      </c>
+      <c r="H31">
+        <v>236.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>15.6</v>
+      </c>
+      <c r="L31">
+        <v>3.4</v>
+      </c>
+      <c r="M31">
+        <v>13.06839963</v>
+      </c>
+      <c r="N31">
+        <v>-9.66839963</v>
+      </c>
+      <c r="O31">
+        <v>-3.3839398705</v>
+      </c>
+      <c r="P31">
+        <v>-6.2844597595</v>
+      </c>
+      <c r="Q31">
+        <v>9.315540240499999</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08839380666346551</v>
+      </c>
+      <c r="T31">
+        <v>1.427350040016272</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.09105935184811914</v>
+      </c>
+      <c r="W31">
+        <v>0.1669723970655005</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2601695767089118</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1129255978800557</v>
+      </c>
+      <c r="C32">
+        <v>91.95755629344198</v>
+      </c>
+      <c r="D32">
+        <v>152.750556293442</v>
+      </c>
+      <c r="E32">
+        <v>64.783</v>
+      </c>
+      <c r="F32">
+        <v>73.593</v>
+      </c>
+      <c r="G32">
+        <v>12.8</v>
+      </c>
+      <c r="H32">
+        <v>236.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>15.6</v>
+      </c>
+      <c r="L32">
+        <v>3.4</v>
+      </c>
+      <c r="M32">
+        <v>13.5190341</v>
+      </c>
+      <c r="N32">
+        <v>-10.1190341</v>
+      </c>
+      <c r="O32">
+        <v>-3.541661935</v>
+      </c>
+      <c r="P32">
+        <v>-6.577372165</v>
+      </c>
+      <c r="Q32">
+        <v>9.022627835</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.0895237181872293</v>
+      </c>
+      <c r="T32">
+        <v>1.447740754873647</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.0880240401198485</v>
+      </c>
+      <c r="W32">
+        <v>0.1675299838299838</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.2514972574852814</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1146695978800556</v>
+      </c>
+      <c r="C33">
+        <v>87.55928843574523</v>
+      </c>
+      <c r="D33">
+        <v>150.8053884357452</v>
+      </c>
+      <c r="E33">
+        <v>67.23609999999999</v>
+      </c>
+      <c r="F33">
+        <v>76.0461</v>
+      </c>
+      <c r="G33">
+        <v>12.8</v>
+      </c>
+      <c r="H33">
+        <v>236.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>15.6</v>
+      </c>
+      <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>13.96966857</v>
+      </c>
+      <c r="N33">
+        <v>-10.56966857</v>
+      </c>
+      <c r="O33">
+        <v>-3.699383999499999</v>
+      </c>
+      <c r="P33">
+        <v>-6.8702845705</v>
+      </c>
+      <c r="Q33">
+        <v>8.729715429500001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09068638076965291</v>
+      </c>
+      <c r="T33">
+        <v>1.46872250494428</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.08518455495469211</v>
+      </c>
+      <c r="W33">
+        <v>0.168051597254823</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.2433844427276918</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1164135978800556</v>
+      </c>
+      <c r="C34">
+        <v>83.20993825842231</v>
+      </c>
+      <c r="D34">
+        <v>148.9091382584223</v>
+      </c>
+      <c r="E34">
+        <v>69.6892</v>
+      </c>
+      <c r="F34">
+        <v>78.4992</v>
+      </c>
+      <c r="G34">
+        <v>12.8</v>
+      </c>
+      <c r="H34">
+        <v>236.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>15.6</v>
+      </c>
+      <c r="L34">
+        <v>3.4</v>
+      </c>
+      <c r="M34">
+        <v>14.42030304</v>
+      </c>
+      <c r="N34">
+        <v>-11.02030304</v>
+      </c>
+      <c r="O34">
+        <v>-3.857106064</v>
+      </c>
+      <c r="P34">
+        <v>-7.163196976</v>
+      </c>
+      <c r="Q34">
+        <v>8.436803024</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.0918832393103831</v>
+      </c>
+      <c r="T34">
+        <v>1.490321365311107</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.08252253761235796</v>
+      </c>
+      <c r="W34">
+        <v>0.1685406098406098</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.2357786788924514</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1181575978800557</v>
+      </c>
+      <c r="C35">
+        <v>78.90768338102751</v>
+      </c>
+      <c r="D35">
+        <v>147.0599833810275</v>
+      </c>
+      <c r="E35">
+        <v>72.14230000000001</v>
+      </c>
+      <c r="F35">
+        <v>80.95230000000001</v>
+      </c>
+      <c r="G35">
+        <v>12.8</v>
+      </c>
+      <c r="H35">
+        <v>236.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>15.6</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>14.87093751</v>
+      </c>
+      <c r="N35">
+        <v>-11.47093751</v>
+      </c>
+      <c r="O35">
+        <v>-4.0148281285</v>
+      </c>
+      <c r="P35">
+        <v>-7.456109381500001</v>
+      </c>
+      <c r="Q35">
+        <v>8.143890618499999</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09311582497173211</v>
+      </c>
+      <c r="T35">
+        <v>1.512564967778437</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.08002185465440773</v>
+      </c>
+      <c r="W35">
+        <v>0.1689999852999853</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.2286338704411649</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1199015978800557</v>
+      </c>
+      <c r="C36">
+        <v>74.65079083414828</v>
+      </c>
+      <c r="D36">
+        <v>145.2561908341483</v>
+      </c>
+      <c r="E36">
+        <v>74.5954</v>
+      </c>
+      <c r="F36">
+        <v>83.4054</v>
+      </c>
+      <c r="G36">
+        <v>12.8</v>
+      </c>
+      <c r="H36">
+        <v>236.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>15.6</v>
+      </c>
+      <c r="L36">
+        <v>3.4</v>
+      </c>
+      <c r="M36">
+        <v>15.32157198</v>
+      </c>
+      <c r="N36">
+        <v>-11.92157198</v>
+      </c>
+      <c r="O36">
+        <v>-4.172550192999999</v>
+      </c>
+      <c r="P36">
+        <v>-7.749021787</v>
+      </c>
+      <c r="Q36">
+        <v>7.850978212999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09438576171372805</v>
+      </c>
+      <c r="T36">
+        <v>1.535482618805383</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.07766827069398398</v>
+      </c>
+      <c r="W36">
+        <v>0.1694323386735151</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.2219093448399543</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1216455978800557</v>
+      </c>
+      <c r="C37">
+        <v>70.43761164240728</v>
+      </c>
+      <c r="D37">
+        <v>143.4961116424073</v>
+      </c>
+      <c r="E37">
+        <v>77.0485</v>
+      </c>
+      <c r="F37">
+        <v>85.85850000000001</v>
+      </c>
+      <c r="G37">
+        <v>12.8</v>
+      </c>
+      <c r="H37">
+        <v>236.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>15.6</v>
+      </c>
+      <c r="L37">
+        <v>3.4</v>
+      </c>
+      <c r="M37">
+        <v>15.77220645</v>
+      </c>
+      <c r="N37">
+        <v>-12.37220645</v>
+      </c>
+      <c r="O37">
+        <v>-4.3302722575</v>
+      </c>
+      <c r="P37">
+        <v>-8.041934192500001</v>
+      </c>
+      <c r="Q37">
+        <v>7.558065807499998</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09569477343240079</v>
+      </c>
+      <c r="T37">
+        <v>1.559105428325466</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.07544917724558443</v>
+      </c>
+      <c r="W37">
+        <v>0.1698399861399861</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.2155690778445269</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1233895978800557</v>
+      </c>
+      <c r="C38">
+        <v>66.26657579657831</v>
+      </c>
+      <c r="D38">
+        <v>141.7781757965783</v>
+      </c>
+      <c r="E38">
+        <v>79.5016</v>
+      </c>
+      <c r="F38">
+        <v>88.3116</v>
+      </c>
+      <c r="G38">
+        <v>12.8</v>
+      </c>
+      <c r="H38">
+        <v>236.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>15.6</v>
+      </c>
+      <c r="L38">
+        <v>3.4</v>
+      </c>
+      <c r="M38">
+        <v>16.22284092</v>
+      </c>
+      <c r="N38">
+        <v>-12.82284092</v>
+      </c>
+      <c r="O38">
+        <v>-4.487994322</v>
+      </c>
+      <c r="P38">
+        <v>-8.334846597999999</v>
+      </c>
+      <c r="Q38">
+        <v>7.265153402000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09704469176728205</v>
+      </c>
+      <c r="T38">
+        <v>1.583466450643051</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.07335336676654042</v>
+      </c>
+      <c r="W38">
+        <v>0.1702249865249865</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.2095810479044012</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1251335978800557</v>
+      </c>
+      <c r="C39">
+        <v>62.13618758259256</v>
+      </c>
+      <c r="D39">
+        <v>140.1008875825925</v>
+      </c>
+      <c r="E39">
+        <v>81.9547</v>
+      </c>
+      <c r="F39">
+        <v>90.7647</v>
+      </c>
+      <c r="G39">
+        <v>12.8</v>
+      </c>
+      <c r="H39">
+        <v>236.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>15.6</v>
+      </c>
+      <c r="L39">
+        <v>3.4</v>
+      </c>
+      <c r="M39">
+        <v>16.67347539</v>
+      </c>
+      <c r="N39">
+        <v>-13.27347539</v>
+      </c>
+      <c r="O39">
+        <v>-4.645716386499999</v>
+      </c>
+      <c r="P39">
+        <v>-8.6277590035</v>
+      </c>
+      <c r="Q39">
+        <v>6.9722409965</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09843746465247701</v>
+      </c>
+      <c r="T39">
+        <v>1.608600838748497</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.07137084334041771</v>
+      </c>
+      <c r="W39">
+        <v>0.1705891760783653</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.2039166952583363</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1268775978800556</v>
+      </c>
+      <c r="C40">
+        <v>58.0450212382258</v>
+      </c>
+      <c r="D40">
+        <v>138.4628212382258</v>
+      </c>
+      <c r="E40">
+        <v>84.40779999999999</v>
+      </c>
+      <c r="F40">
+        <v>93.2178</v>
+      </c>
+      <c r="G40">
+        <v>12.8</v>
+      </c>
+      <c r="H40">
+        <v>236.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>15.6</v>
+      </c>
+      <c r="L40">
+        <v>3.4</v>
+      </c>
+      <c r="M40">
+        <v>17.12410986</v>
+      </c>
+      <c r="N40">
+        <v>-13.72410986</v>
+      </c>
+      <c r="O40">
+        <v>-4.803438451</v>
+      </c>
+      <c r="P40">
+        <v>-8.920671409000001</v>
+      </c>
+      <c r="Q40">
+        <v>6.679328590999999</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09987516569525889</v>
+      </c>
+      <c r="T40">
+        <v>1.634546013567021</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.06949266325251197</v>
+      </c>
+      <c r="W40">
+        <v>0.1709341977605136</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1985504664357485</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1286215978800557</v>
+      </c>
+      <c r="C41">
+        <v>53.99171691095741</v>
+      </c>
+      <c r="D41">
+        <v>136.8626169109574</v>
+      </c>
+      <c r="E41">
+        <v>86.8609</v>
+      </c>
+      <c r="F41">
+        <v>95.6709</v>
+      </c>
+      <c r="G41">
+        <v>12.8</v>
+      </c>
+      <c r="H41">
+        <v>236.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>15.6</v>
+      </c>
+      <c r="L41">
+        <v>3.4</v>
+      </c>
+      <c r="M41">
+        <v>17.57474433</v>
+      </c>
+      <c r="N41">
+        <v>-14.17474433</v>
+      </c>
+      <c r="O41">
+        <v>-4.9611605155</v>
+      </c>
+      <c r="P41">
+        <v>-9.213583814500002</v>
+      </c>
+      <c r="Q41">
+        <v>6.386416185499998</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1013600044771484</v>
+      </c>
+      <c r="T41">
+        <v>1.661341849855005</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.06771080009219116</v>
+      </c>
+      <c r="W41">
+        <v>0.1712615260230645</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1934594288348319</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1303655978800557</v>
+      </c>
+      <c r="C42">
+        <v>49.97497689291585</v>
+      </c>
+      <c r="D42">
+        <v>135.2989768929158</v>
+      </c>
+      <c r="E42">
+        <v>89.31400000000001</v>
+      </c>
+      <c r="F42">
+        <v>98.12400000000001</v>
+      </c>
+      <c r="G42">
+        <v>12.8</v>
+      </c>
+      <c r="H42">
+        <v>236.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>15.6</v>
+      </c>
+      <c r="L42">
+        <v>3.4</v>
+      </c>
+      <c r="M42">
+        <v>18.0253788</v>
+      </c>
+      <c r="N42">
+        <v>-14.6253788</v>
+      </c>
+      <c r="O42">
+        <v>-5.11888258</v>
+      </c>
+      <c r="P42">
+        <v>-9.506496220000002</v>
+      </c>
+      <c r="Q42">
+        <v>6.093503779999997</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1028943378851009</v>
+      </c>
+      <c r="T42">
+        <v>1.689030880685922</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.06601803008988637</v>
+      </c>
+      <c r="W42">
+        <v>0.1715724878724879</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.1886229431139611</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1321095978800557</v>
+      </c>
+      <c r="C43">
+        <v>45.99356211100022</v>
+      </c>
+      <c r="D43">
+        <v>133.7706621110002</v>
+      </c>
+      <c r="E43">
+        <v>91.7671</v>
+      </c>
+      <c r="F43">
+        <v>100.5771</v>
+      </c>
+      <c r="G43">
+        <v>12.8</v>
+      </c>
+      <c r="H43">
+        <v>236.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>15.6</v>
+      </c>
+      <c r="L43">
+        <v>3.4</v>
+      </c>
+      <c r="M43">
+        <v>18.47601327</v>
+      </c>
+      <c r="N43">
+        <v>-15.07601327</v>
+      </c>
+      <c r="O43">
+        <v>-5.276604644499999</v>
+      </c>
+      <c r="P43">
+        <v>-9.7994086255</v>
+      </c>
+      <c r="Q43">
+        <v>5.8005913745</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1044806825950178</v>
+      </c>
+      <c r="T43">
+        <v>1.717658522731446</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.0644078342340355</v>
+      </c>
+      <c r="W43">
+        <v>0.1718682808512077</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1840223835258157</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1338535978800557</v>
+      </c>
+      <c r="C44">
+        <v>42.04628885222708</v>
+      </c>
+      <c r="D44">
+        <v>132.2764888522271</v>
+      </c>
+      <c r="E44">
+        <v>94.22019999999999</v>
+      </c>
+      <c r="F44">
+        <v>103.0302</v>
+      </c>
+      <c r="G44">
+        <v>12.8</v>
+      </c>
+      <c r="H44">
+        <v>236.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>15.6</v>
+      </c>
+      <c r="L44">
+        <v>3.4</v>
+      </c>
+      <c r="M44">
+        <v>18.92664774</v>
+      </c>
+      <c r="N44">
+        <v>-15.52664774</v>
+      </c>
+      <c r="O44">
+        <v>-5.434326709</v>
+      </c>
+      <c r="P44">
+        <v>-10.092321031</v>
+      </c>
+      <c r="Q44">
+        <v>5.507678968999999</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.106121728846656</v>
+      </c>
+      <c r="T44">
+        <v>1.747273324847505</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.06287431437132036</v>
+      </c>
+      <c r="W44">
+        <v>0.1721499884499884</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1796408982037725</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1355975978800557</v>
+      </c>
+      <c r="C45">
+        <v>38.13202570611374</v>
+      </c>
+      <c r="D45">
+        <v>130.8153257061137</v>
+      </c>
+      <c r="E45">
+        <v>96.6733</v>
+      </c>
+      <c r="F45">
+        <v>105.4833</v>
+      </c>
+      <c r="G45">
+        <v>12.8</v>
+      </c>
+      <c r="H45">
+        <v>236.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>15.6</v>
+      </c>
+      <c r="L45">
+        <v>3.4</v>
+      </c>
+      <c r="M45">
+        <v>19.37728221</v>
+      </c>
+      <c r="N45">
+        <v>-15.97728221</v>
+      </c>
+      <c r="O45">
+        <v>-5.5920487735</v>
+      </c>
+      <c r="P45">
+        <v>-10.3852334365</v>
+      </c>
+      <c r="Q45">
+        <v>5.2147665635</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1078203556685272</v>
+      </c>
+      <c r="T45">
+        <v>1.777927242827286</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.0614121210138478</v>
+      </c>
+      <c r="W45">
+        <v>0.1724185933697562</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.175463202896708</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1373415978800557</v>
+      </c>
+      <c r="C46">
+        <v>34.24969070749897</v>
+      </c>
+      <c r="D46">
+        <v>129.386090707499</v>
+      </c>
+      <c r="E46">
+        <v>99.1264</v>
+      </c>
+      <c r="F46">
+        <v>107.9364</v>
+      </c>
+      <c r="G46">
+        <v>12.8</v>
+      </c>
+      <c r="H46">
+        <v>236.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>15.6</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>19.82791668</v>
+      </c>
+      <c r="N46">
+        <v>-16.42791668</v>
+      </c>
+      <c r="O46">
+        <v>-5.749770838000001</v>
+      </c>
+      <c r="P46">
+        <v>-10.678145842</v>
+      </c>
+      <c r="Q46">
+        <v>4.921854157999997</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1095796477340366</v>
+      </c>
+      <c r="T46">
+        <v>1.809675943592059</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.06001639099080579</v>
+      </c>
+      <c r="W46">
+        <v>0.172674988974989</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.1714754028308736</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1390855978800556</v>
+      </c>
+      <c r="C47">
+        <v>30.39824866463806</v>
+      </c>
+      <c r="D47">
+        <v>127.987748664638</v>
+      </c>
+      <c r="E47">
+        <v>101.5795</v>
+      </c>
+      <c r="F47">
+        <v>110.3895</v>
+      </c>
+      <c r="G47">
+        <v>12.8</v>
+      </c>
+      <c r="H47">
+        <v>236.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>19</v>
+      </c>
+      <c r="K47">
+        <v>15.6</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>20.27855115</v>
+      </c>
+      <c r="N47">
+        <v>-16.87855115</v>
+      </c>
+      <c r="O47">
+        <v>-5.9074929025</v>
+      </c>
+      <c r="P47">
+        <v>-10.9710582475</v>
+      </c>
+      <c r="Q47">
+        <v>4.628941752499999</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1114029140564737</v>
+      </c>
+      <c r="T47">
+        <v>1.84257914256646</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.05868269341323235</v>
+      </c>
+      <c r="W47">
+        <v>0.1729199892199892</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1676648383235209</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1408295978800557</v>
+      </c>
+      <c r="C48">
+        <v>26.57670865870475</v>
+      </c>
+      <c r="D48">
+        <v>126.6193086587048</v>
+      </c>
+      <c r="E48">
+        <v>104.0326</v>
+      </c>
+      <c r="F48">
+        <v>112.8426</v>
+      </c>
+      <c r="G48">
+        <v>12.8</v>
+      </c>
+      <c r="H48">
+        <v>236.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>15.6</v>
+      </c>
+      <c r="L48">
+        <v>3.4</v>
+      </c>
+      <c r="M48">
+        <v>20.72918562</v>
+      </c>
+      <c r="N48">
+        <v>-17.32918562</v>
+      </c>
+      <c r="O48">
+        <v>-6.065214967000001</v>
+      </c>
+      <c r="P48">
+        <v>-11.263970653</v>
+      </c>
+      <c r="Q48">
+        <v>4.336029346999997</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1132937087612232</v>
+      </c>
+      <c r="T48">
+        <v>1.876700978539913</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.05740698268685771</v>
+      </c>
+      <c r="W48">
+        <v>0.1731543372804242</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1640199505338791</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1425735978800557</v>
+      </c>
+      <c r="C49">
+        <v>22.78412170200838</v>
+      </c>
+      <c r="D49">
+        <v>125.2798217020084</v>
+      </c>
+      <c r="E49">
+        <v>106.4857</v>
+      </c>
+      <c r="F49">
+        <v>115.2957</v>
+      </c>
+      <c r="G49">
+        <v>12.8</v>
+      </c>
+      <c r="H49">
+        <v>236.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>15.6</v>
+      </c>
+      <c r="L49">
+        <v>3.4</v>
+      </c>
+      <c r="M49">
+        <v>21.17982009</v>
+      </c>
+      <c r="N49">
+        <v>-17.77982009</v>
+      </c>
+      <c r="O49">
+        <v>-6.2229370315</v>
+      </c>
+      <c r="P49">
+        <v>-11.5568830585</v>
+      </c>
+      <c r="Q49">
+        <v>4.043116941499997</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1152558542095481</v>
+      </c>
+      <c r="T49">
+        <v>1.912110430965194</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.05618555752330755</v>
+      </c>
+      <c r="W49">
+        <v>0.1733787130829684</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1605301643523074</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1443175978800557</v>
+      </c>
+      <c r="C50">
+        <v>19.01957854329449</v>
+      </c>
+      <c r="D50">
+        <v>123.9683785432945</v>
+      </c>
+      <c r="E50">
+        <v>108.9388</v>
+      </c>
+      <c r="F50">
+        <v>117.7488</v>
+      </c>
+      <c r="G50">
+        <v>12.8</v>
+      </c>
+      <c r="H50">
+        <v>236.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>15.6</v>
+      </c>
+      <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>21.63045456</v>
+      </c>
+      <c r="N50">
+        <v>-18.23045456</v>
+      </c>
+      <c r="O50">
+        <v>-6.380659095999999</v>
+      </c>
+      <c r="P50">
+        <v>-11.849795464</v>
+      </c>
+      <c r="Q50">
+        <v>3.750204536</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.117293466790501</v>
+      </c>
+      <c r="T50">
+        <v>1.948881785406833</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.05501502507490531</v>
+      </c>
+      <c r="W50">
+        <v>0.1735937398937399</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.157185785928301</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1460615978800557</v>
+      </c>
+      <c r="C51">
+        <v>15.28220760946402</v>
+      </c>
+      <c r="D51">
+        <v>122.684107609464</v>
+      </c>
+      <c r="E51">
+        <v>111.3919</v>
+      </c>
+      <c r="F51">
+        <v>120.2019</v>
+      </c>
+      <c r="G51">
+        <v>12.8</v>
+      </c>
+      <c r="H51">
+        <v>236.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>15.6</v>
+      </c>
+      <c r="L51">
+        <v>3.4</v>
+      </c>
+      <c r="M51">
+        <v>22.08108903</v>
+      </c>
+      <c r="N51">
+        <v>-18.68108903</v>
+      </c>
+      <c r="O51">
+        <v>-6.538381160499998</v>
+      </c>
+      <c r="P51">
+        <v>-12.1427078695</v>
+      </c>
+      <c r="Q51">
+        <v>3.457292130500003</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1194109857471775</v>
+      </c>
+      <c r="T51">
+        <v>1.987095153748143</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.05389226946113174</v>
+      </c>
+      <c r="W51">
+        <v>0.1737999900999901</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1539779127460907</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1478055978800557</v>
+      </c>
+      <c r="C52">
+        <v>11.5711730739192</v>
+      </c>
+      <c r="D52">
+        <v>121.4261730739192</v>
+      </c>
+      <c r="E52">
+        <v>113.845</v>
+      </c>
+      <c r="F52">
+        <v>122.655</v>
+      </c>
+      <c r="G52">
+        <v>12.8</v>
+      </c>
+      <c r="H52">
+        <v>236.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>19</v>
+      </c>
+      <c r="K52">
+        <v>15.6</v>
+      </c>
+      <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
+        <v>22.5317235</v>
+      </c>
+      <c r="N52">
+        <v>-19.1317235</v>
+      </c>
+      <c r="O52">
+        <v>-6.696103225</v>
+      </c>
+      <c r="P52">
+        <v>-12.435620275</v>
+      </c>
+      <c r="Q52">
+        <v>3.164379725</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.121613205462121</v>
+      </c>
+      <c r="T52">
+        <v>2.026837056823106</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.0528144240719091</v>
+      </c>
+      <c r="W52">
+        <v>0.1739979902979903</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.150898354491169</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1495495978800556</v>
+      </c>
+      <c r="C53">
+        <v>7.885673042539906</v>
+      </c>
+      <c r="D53">
+        <v>120.1937730425399</v>
+      </c>
+      <c r="E53">
+        <v>116.2981</v>
+      </c>
+      <c r="F53">
+        <v>125.1081</v>
+      </c>
+      <c r="G53">
+        <v>12.8</v>
+      </c>
+      <c r="H53">
+        <v>236.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>19</v>
+      </c>
+      <c r="K53">
+        <v>15.6</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>22.98235797</v>
+      </c>
+      <c r="N53">
+        <v>-19.58235797</v>
+      </c>
+      <c r="O53">
+        <v>-6.853825289500001</v>
+      </c>
+      <c r="P53">
+        <v>-12.7285326805</v>
+      </c>
+      <c r="Q53">
+        <v>2.871467319499997</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1239053116960418</v>
+      </c>
+      <c r="T53">
+        <v>2.068201078390924</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.05177884712932265</v>
+      </c>
+      <c r="W53">
+        <v>0.1741882257823434</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.147939563226636</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1512935978800557</v>
+      </c>
+      <c r="C54">
+        <v>4.224937849017309</v>
+      </c>
+      <c r="D54">
+        <v>118.9861378490173</v>
+      </c>
+      <c r="E54">
+        <v>118.7512</v>
+      </c>
+      <c r="F54">
+        <v>127.5612</v>
+      </c>
+      <c r="G54">
+        <v>12.8</v>
+      </c>
+      <c r="H54">
+        <v>236.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <v>15.6</v>
+      </c>
+      <c r="L54">
+        <v>3.4</v>
+      </c>
+      <c r="M54">
+        <v>23.43299244</v>
+      </c>
+      <c r="N54">
+        <v>-20.03299244</v>
+      </c>
+      <c r="O54">
+        <v>-7.011547354</v>
+      </c>
+      <c r="P54">
+        <v>-13.021445086</v>
+      </c>
+      <c r="Q54">
+        <v>2.578554914</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1262929223563761</v>
+      </c>
+      <c r="T54">
+        <v>2.111288600857402</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.05078310006914338</v>
+      </c>
+      <c r="W54">
+        <v>0.1743711445172984</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1450945716261238</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1530375978800557</v>
+      </c>
+      <c r="C55">
+        <v>0.5882284519302345</v>
+      </c>
+      <c r="D55">
+        <v>117.8025284519303</v>
+      </c>
+      <c r="E55">
+        <v>121.2043</v>
+      </c>
+      <c r="F55">
+        <v>130.0143</v>
+      </c>
+      <c r="G55">
+        <v>12.8</v>
+      </c>
+      <c r="H55">
+        <v>236.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55">
+        <v>15.6</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>23.88362691</v>
+      </c>
+      <c r="N55">
+        <v>-20.48362691000001</v>
+      </c>
+      <c r="O55">
+        <v>-7.169269418500002</v>
+      </c>
+      <c r="P55">
+        <v>-13.3143574915</v>
+      </c>
+      <c r="Q55">
+        <v>2.285642508499995</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1287821334703415</v>
+      </c>
+      <c r="T55">
+        <v>2.156209634918198</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.04982492836972557</v>
+      </c>
+      <c r="W55">
+        <v>0.1745471606584814</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1423569381992158</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1547815978800557</v>
+      </c>
+      <c r="C56">
+        <v>-3.025165073450665</v>
+      </c>
+      <c r="D56">
+        <v>116.6422349265493</v>
+      </c>
+      <c r="E56">
+        <v>123.6574</v>
+      </c>
+      <c r="F56">
+        <v>132.4674</v>
+      </c>
+      <c r="G56">
+        <v>12.8</v>
+      </c>
+      <c r="H56">
+        <v>236.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>19</v>
+      </c>
+      <c r="K56">
+        <v>15.6</v>
+      </c>
+      <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>24.33426138</v>
+      </c>
+      <c r="N56">
+        <v>-20.93426138</v>
+      </c>
+      <c r="O56">
+        <v>-7.326991483</v>
+      </c>
+      <c r="P56">
+        <v>-13.607269897</v>
+      </c>
+      <c r="Q56">
+        <v>1.992730102999998</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1313795711544794</v>
+      </c>
+      <c r="T56">
+        <v>2.20308375741642</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.04890224451102695</v>
+      </c>
+      <c r="W56">
+        <v>0.1747166576833243</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1397206986029341</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1565255978800557</v>
+      </c>
+      <c r="C57">
+        <v>-6.615924955098819</v>
+      </c>
+      <c r="D57">
+        <v>115.5045750449012</v>
+      </c>
+      <c r="E57">
+        <v>126.1105</v>
+      </c>
+      <c r="F57">
+        <v>134.9205</v>
+      </c>
+      <c r="G57">
+        <v>12.8</v>
+      </c>
+      <c r="H57">
+        <v>236.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>19</v>
+      </c>
+      <c r="K57">
+        <v>15.6</v>
+      </c>
+      <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>24.78489585</v>
+      </c>
+      <c r="N57">
+        <v>-21.38489585</v>
+      </c>
+      <c r="O57">
+        <v>-7.484713547499999</v>
+      </c>
+      <c r="P57">
+        <v>-13.9001823025</v>
+      </c>
+      <c r="Q57">
+        <v>1.6998176975</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1340924505134678</v>
+      </c>
+      <c r="T57">
+        <v>2.252041174247896</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.04801311279264464</v>
+      </c>
+      <c r="W57">
+        <v>0.1748799911799912</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.137180322264699</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1582695978800557</v>
+      </c>
+      <c r="C58">
+        <v>-10.18470706187429</v>
+      </c>
+      <c r="D58">
+        <v>114.3888929381257</v>
+      </c>
+      <c r="E58">
+        <v>128.5636</v>
+      </c>
+      <c r="F58">
+        <v>137.3736</v>
+      </c>
+      <c r="G58">
+        <v>12.8</v>
+      </c>
+      <c r="H58">
+        <v>236.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>19</v>
+      </c>
+      <c r="K58">
+        <v>15.6</v>
+      </c>
+      <c r="L58">
+        <v>3.4</v>
+      </c>
+      <c r="M58">
+        <v>25.23553032</v>
+      </c>
+      <c r="N58">
+        <v>-21.83553032</v>
+      </c>
+      <c r="O58">
+        <v>-7.642435612000001</v>
+      </c>
+      <c r="P58">
+        <v>-14.193094708</v>
+      </c>
+      <c r="Q58">
+        <v>1.406905291999996</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1369286425705921</v>
+      </c>
+      <c r="T58">
+        <v>2.303223928208075</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.04715573577849027</v>
+      </c>
+      <c r="W58">
+        <v>0.1750374913374913</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1347306736528293</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1600135978800556</v>
+      </c>
+      <c r="C59">
+        <v>-13.73214216438512</v>
+      </c>
+      <c r="D59">
+        <v>113.2945578356149</v>
+      </c>
+      <c r="E59">
+        <v>131.0167</v>
+      </c>
+      <c r="F59">
+        <v>139.8267</v>
+      </c>
+      <c r="G59">
+        <v>12.8</v>
+      </c>
+      <c r="H59">
+        <v>236.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>19</v>
+      </c>
+      <c r="K59">
+        <v>15.6</v>
+      </c>
+      <c r="L59">
+        <v>3.4</v>
+      </c>
+      <c r="M59">
+        <v>25.68616479</v>
+      </c>
+      <c r="N59">
+        <v>-22.28616479</v>
+      </c>
+      <c r="O59">
+        <v>-7.8001576765</v>
+      </c>
+      <c r="P59">
+        <v>-14.4860071135</v>
+      </c>
+      <c r="Q59">
+        <v>1.113992886499998</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.13989675053735</v>
+      </c>
+      <c r="T59">
+        <v>2.356787275375705</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.04632844216834132</v>
+      </c>
+      <c r="W59">
+        <v>0.1751894651736757</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1323669776238324</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1617575978800557</v>
+      </c>
+      <c r="C60">
+        <v>-17.25883712415997</v>
+      </c>
+      <c r="D60">
+        <v>112.22096287584</v>
+      </c>
+      <c r="E60">
+        <v>133.4698</v>
+      </c>
+      <c r="F60">
+        <v>142.2798</v>
+      </c>
+      <c r="G60">
+        <v>12.8</v>
+      </c>
+      <c r="H60">
+        <v>236.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>19</v>
+      </c>
+      <c r="K60">
+        <v>15.6</v>
+      </c>
+      <c r="L60">
+        <v>3.4</v>
+      </c>
+      <c r="M60">
+        <v>26.13679926</v>
+      </c>
+      <c r="N60">
+        <v>-22.73679926</v>
+      </c>
+      <c r="O60">
+        <v>-7.957879740999998</v>
+      </c>
+      <c r="P60">
+        <v>-14.778919519</v>
+      </c>
+      <c r="Q60">
+        <v>0.821080481000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1430061969787155</v>
+      </c>
+      <c r="T60">
+        <v>2.412901258122745</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.04552967592405957</v>
+      </c>
+      <c r="W60">
+        <v>0.1753361985327503</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.130084788354456</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1635015978800556</v>
+      </c>
+      <c r="C61">
+        <v>-20.76537601584276</v>
+      </c>
+      <c r="D61">
+        <v>111.1675239841572</v>
+      </c>
+      <c r="E61">
+        <v>135.9229</v>
+      </c>
+      <c r="F61">
+        <v>144.7329</v>
+      </c>
+      <c r="G61">
+        <v>12.8</v>
+      </c>
+      <c r="H61">
+        <v>236.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>19</v>
+      </c>
+      <c r="K61">
+        <v>15.6</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>26.58743373</v>
+      </c>
+      <c r="N61">
+        <v>-23.18743373</v>
+      </c>
+      <c r="O61">
+        <v>-8.115601805500001</v>
+      </c>
+      <c r="P61">
+        <v>-15.0718319245</v>
+      </c>
+      <c r="Q61">
+        <v>0.5281680754999982</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1462673237342939</v>
+      </c>
+      <c r="T61">
+        <v>2.47175250832086</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.04475798650161789</v>
+      </c>
+      <c r="W61">
+        <v>0.1754779578796528</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1278799614331939</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1652455978800557</v>
+      </c>
+      <c r="C62">
+        <v>-24.25232118676971</v>
+      </c>
+      <c r="D62">
+        <v>110.1336788132303</v>
+      </c>
+      <c r="E62">
+        <v>138.376</v>
+      </c>
+      <c r="F62">
+        <v>147.186</v>
+      </c>
+      <c r="G62">
+        <v>12.8</v>
+      </c>
+      <c r="H62">
+        <v>236.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>19</v>
+      </c>
+      <c r="K62">
+        <v>15.6</v>
+      </c>
+      <c r="L62">
+        <v>3.4</v>
+      </c>
+      <c r="M62">
+        <v>27.0380682</v>
+      </c>
+      <c r="N62">
+        <v>-23.6380682</v>
+      </c>
+      <c r="O62">
+        <v>-8.273323869999999</v>
+      </c>
+      <c r="P62">
+        <v>-15.36474433</v>
+      </c>
+      <c r="Q62">
+        <v>0.235255669999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1496915068276513</v>
+      </c>
+      <c r="T62">
+        <v>2.533546321028882</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.04401202005992425</v>
+      </c>
+      <c r="W62">
+        <v>0.1756149919149919</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1257486287426408</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1669895978800557</v>
+      </c>
+      <c r="C63">
+        <v>-27.72021425796741</v>
+      </c>
+      <c r="D63">
+        <v>109.1188857420326</v>
+      </c>
+      <c r="E63">
+        <v>140.8291</v>
+      </c>
+      <c r="F63">
+        <v>149.6391</v>
+      </c>
+      <c r="G63">
+        <v>12.8</v>
+      </c>
+      <c r="H63">
+        <v>236.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>19</v>
+      </c>
+      <c r="K63">
+        <v>15.6</v>
+      </c>
+      <c r="L63">
+        <v>3.4</v>
+      </c>
+      <c r="M63">
+        <v>27.48870267</v>
+      </c>
+      <c r="N63">
+        <v>-24.08870267</v>
+      </c>
+      <c r="O63">
+        <v>-8.431045934499998</v>
+      </c>
+      <c r="P63">
+        <v>-15.6576567355</v>
+      </c>
+      <c r="Q63">
+        <v>-0.05765673549999839</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1532912890540013</v>
+      </c>
+      <c r="T63">
+        <v>2.59850904720911</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.04329051153435173</v>
+      </c>
+      <c r="W63">
+        <v>0.1757475330311396</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1236871758124336</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1687335978800557</v>
+      </c>
+      <c r="C64">
+        <v>-31.16957707031601</v>
+      </c>
+      <c r="D64">
+        <v>108.122622929684</v>
+      </c>
+      <c r="E64">
+        <v>143.2822</v>
+      </c>
+      <c r="F64">
+        <v>152.0922</v>
+      </c>
+      <c r="G64">
+        <v>12.8</v>
+      </c>
+      <c r="H64">
+        <v>236.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>19</v>
+      </c>
+      <c r="K64">
+        <v>15.6</v>
+      </c>
+      <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>27.93933714</v>
+      </c>
+      <c r="N64">
+        <v>-24.53933714</v>
+      </c>
+      <c r="O64">
+        <v>-8.588767999</v>
+      </c>
+      <c r="P64">
+        <v>-15.950569141</v>
+      </c>
+      <c r="Q64">
+        <v>-0.3505691410000011</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1570805335027908</v>
+      </c>
+      <c r="T64">
+        <v>2.666890864240929</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.04259227747734606</v>
+      </c>
+      <c r="W64">
+        <v>0.1758757986274115</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.1216922213638458</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1704775978800556</v>
+      </c>
+      <c r="C65">
+        <v>-34.60091257934985</v>
+      </c>
+      <c r="D65">
+        <v>107.1443874206501</v>
+      </c>
+      <c r="E65">
+        <v>145.7353</v>
+      </c>
+      <c r="F65">
+        <v>154.5453</v>
+      </c>
+      <c r="G65">
+        <v>12.8</v>
+      </c>
+      <c r="H65">
+        <v>236.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>19</v>
+      </c>
+      <c r="K65">
+        <v>15.6</v>
+      </c>
+      <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>28.38997161</v>
+      </c>
+      <c r="N65">
+        <v>-24.98997161</v>
+      </c>
+      <c r="O65">
+        <v>-8.746490063499998</v>
+      </c>
+      <c r="P65">
+        <v>-16.2434815465</v>
+      </c>
+      <c r="Q65">
+        <v>-0.6434815465000003</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1610746019758392</v>
+      </c>
+      <c r="T65">
+        <v>2.738968995706899</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.04191620958088024</v>
+      </c>
+      <c r="W65">
+        <v>0.1759999922999923</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.119760598802515</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1722215978800557</v>
+      </c>
+      <c r="C66">
+        <v>-38.01470570191989</v>
+      </c>
+      <c r="D66">
+        <v>106.1836942980801</v>
+      </c>
+      <c r="E66">
+        <v>148.1884</v>
+      </c>
+      <c r="F66">
+        <v>156.9984</v>
+      </c>
+      <c r="G66">
+        <v>12.8</v>
+      </c>
+      <c r="H66">
+        <v>236.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>19</v>
+      </c>
+      <c r="K66">
+        <v>15.6</v>
+      </c>
+      <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>28.84060608</v>
+      </c>
+      <c r="N66">
+        <v>-25.44060608</v>
+      </c>
+      <c r="O66">
+        <v>-8.904212127999999</v>
+      </c>
+      <c r="P66">
+        <v>-16.536393952</v>
+      </c>
+      <c r="Q66">
+        <v>-0.9363939520000049</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1652905631418348</v>
+      </c>
+      <c r="T66">
+        <v>2.815051467809869</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.04126126880617898</v>
+      </c>
+      <c r="W66">
+        <v>0.1761203049203049</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.1178893394462256</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1739655978800557</v>
+      </c>
+      <c r="C67">
+        <v>-41.4114241177117</v>
+      </c>
+      <c r="D67">
+        <v>105.2400758822883</v>
+      </c>
+      <c r="E67">
+        <v>150.6415</v>
+      </c>
+      <c r="F67">
+        <v>159.4515</v>
+      </c>
+      <c r="G67">
+        <v>12.8</v>
+      </c>
+      <c r="H67">
+        <v>236.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>19</v>
+      </c>
+      <c r="K67">
+        <v>15.6</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>29.29124055</v>
+      </c>
+      <c r="N67">
+        <v>-25.89124055</v>
+      </c>
+      <c r="O67">
+        <v>-9.061934192499999</v>
+      </c>
+      <c r="P67">
+        <v>-16.8293063575</v>
+      </c>
+      <c r="Q67">
+        <v>-1.229306357500002</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1697474363744586</v>
+      </c>
+      <c r="T67">
+        <v>2.895481509747295</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.0406264800553147</v>
+      </c>
+      <c r="W67">
+        <v>0.1762369156138387</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.1160756573008992</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1757095978800557</v>
+      </c>
+      <c r="C68">
+        <v>-44.79151902840361</v>
+      </c>
+      <c r="D68">
+        <v>104.3130809715964</v>
+      </c>
+      <c r="E68">
+        <v>153.0946</v>
+      </c>
+      <c r="F68">
+        <v>161.9046</v>
+      </c>
+      <c r="G68">
+        <v>12.8</v>
+      </c>
+      <c r="H68">
+        <v>236.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>19</v>
+      </c>
+      <c r="K68">
+        <v>15.6</v>
+      </c>
+      <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>29.74187502</v>
+      </c>
+      <c r="N68">
+        <v>-26.34187502</v>
+      </c>
+      <c r="O68">
+        <v>-9.219656257</v>
+      </c>
+      <c r="P68">
+        <v>-17.122218763</v>
+      </c>
+      <c r="Q68">
+        <v>-1.522218763000003</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1744664786207662</v>
+      </c>
+      <c r="T68">
+        <v>2.980642730622215</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.04001092732720386</v>
+      </c>
+      <c r="W68">
+        <v>0.1763499926499927</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.1143169352205824</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1774535978800557</v>
+      </c>
+      <c r="C69">
+        <v>-48.15542587705271</v>
+      </c>
+      <c r="D69">
+        <v>103.4022741229473</v>
+      </c>
+      <c r="E69">
+        <v>155.5477</v>
+      </c>
+      <c r="F69">
+        <v>164.3577</v>
+      </c>
+      <c r="G69">
+        <v>12.8</v>
+      </c>
+      <c r="H69">
+        <v>236.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>19</v>
+      </c>
+      <c r="K69">
+        <v>15.6</v>
+      </c>
+      <c r="L69">
+        <v>3.4</v>
+      </c>
+      <c r="M69">
+        <v>30.19250949000001</v>
+      </c>
+      <c r="N69">
+        <v>-26.79250949000001</v>
+      </c>
+      <c r="O69">
+        <v>-9.377378321500002</v>
+      </c>
+      <c r="P69">
+        <v>-17.4151311685</v>
+      </c>
+      <c r="Q69">
+        <v>-1.815131168500004</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1794715234274561</v>
+      </c>
+      <c r="T69">
+        <v>3.070965237610767</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.03941374930739485</v>
+      </c>
+      <c r="W69">
+        <v>0.1764596942522316</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.1126107123068424</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1791975978800557</v>
+      </c>
+      <c r="C70">
+        <v>-51.50356503011992</v>
+      </c>
+      <c r="D70">
+        <v>102.5072349698801</v>
+      </c>
+      <c r="E70">
+        <v>158.0008</v>
+      </c>
+      <c r="F70">
+        <v>166.8108</v>
+      </c>
+      <c r="G70">
+        <v>12.8</v>
+      </c>
+      <c r="H70">
+        <v>236.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>19</v>
+      </c>
+      <c r="K70">
+        <v>15.6</v>
+      </c>
+      <c r="L70">
+        <v>3.4</v>
+      </c>
+      <c r="M70">
+        <v>30.64314396</v>
+      </c>
+      <c r="N70">
+        <v>-27.24314396</v>
+      </c>
+      <c r="O70">
+        <v>-9.535100385999998</v>
+      </c>
+      <c r="P70">
+        <v>-17.708043574</v>
+      </c>
+      <c r="Q70">
+        <v>-2.108043574000002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1847893835345641</v>
+      </c>
+      <c r="T70">
+        <v>3.166932901286103</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.03883413534699199</v>
+      </c>
+      <c r="W70">
+        <v>0.1765661693367576</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.1109546724199771</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1809415978800556</v>
+      </c>
+      <c r="C71">
+        <v>-54.83634242437742</v>
+      </c>
+      <c r="D71">
+        <v>101.6275575756226</v>
+      </c>
+      <c r="E71">
+        <v>160.4539</v>
+      </c>
+      <c r="F71">
+        <v>169.2639</v>
+      </c>
+      <c r="G71">
+        <v>12.8</v>
+      </c>
+      <c r="H71">
+        <v>236.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>19</v>
+      </c>
+      <c r="K71">
+        <v>15.6</v>
+      </c>
+      <c r="L71">
+        <v>3.4</v>
+      </c>
+      <c r="M71">
+        <v>31.09377843</v>
+      </c>
+      <c r="N71">
+        <v>-27.69377843</v>
+      </c>
+      <c r="O71">
+        <v>-9.6928224505</v>
+      </c>
+      <c r="P71">
+        <v>-18.0009559795</v>
+      </c>
+      <c r="Q71">
+        <v>-2.400955979500003</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1904503313905178</v>
+      </c>
+      <c r="T71">
+        <v>3.269092027134042</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.03827132179123848</v>
+      </c>
+      <c r="W71">
+        <v>0.1766695581869495</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.1093466336892528</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1826855978800556</v>
+      </c>
+      <c r="C72">
+        <v>-58.15415018079059</v>
+      </c>
+      <c r="D72">
+        <v>100.7628498192094</v>
+      </c>
+      <c r="E72">
+        <v>162.907</v>
+      </c>
+      <c r="F72">
+        <v>171.717</v>
+      </c>
+      <c r="G72">
+        <v>12.8</v>
+      </c>
+      <c r="H72">
+        <v>236.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>19</v>
+      </c>
+      <c r="K72">
+        <v>15.6</v>
+      </c>
+      <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>31.5444129</v>
+      </c>
+      <c r="N72">
+        <v>-28.1444129</v>
+      </c>
+      <c r="O72">
+        <v>-9.850544514999999</v>
+      </c>
+      <c r="P72">
+        <v>-18.293868385</v>
+      </c>
+      <c r="Q72">
+        <v>-2.693868385</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1964886757702017</v>
+      </c>
+      <c r="T72">
+        <v>3.378061761371844</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.03772458862279222</v>
+      </c>
+      <c r="W72">
+        <v>0.1767699930699931</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.1077845389222636</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1844295978800557</v>
+      </c>
+      <c r="C73">
+        <v>-61.45736718732465</v>
+      </c>
+      <c r="D73">
+        <v>99.91273281267534</v>
+      </c>
+      <c r="E73">
+        <v>165.3601</v>
+      </c>
+      <c r="F73">
+        <v>174.1701</v>
+      </c>
+      <c r="G73">
+        <v>12.8</v>
+      </c>
+      <c r="H73">
+        <v>236.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>19</v>
+      </c>
+      <c r="K73">
+        <v>15.6</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>31.99504737</v>
+      </c>
+      <c r="N73">
+        <v>-28.59504737</v>
+      </c>
+      <c r="O73">
+        <v>-10.0082665795</v>
+      </c>
+      <c r="P73">
+        <v>-18.5867807905</v>
+      </c>
+      <c r="Q73">
+        <v>-2.986780790500001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2029434576933121</v>
+      </c>
+      <c r="T73">
+        <v>3.49454664969501</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.03719325638866838</v>
+      </c>
+      <c r="W73">
+        <v>0.1768675988014016</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.1062664468247668</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1861735978800556</v>
+      </c>
+      <c r="C74">
+        <v>-64.74635965249604</v>
+      </c>
+      <c r="D74">
+        <v>99.07684034750396</v>
+      </c>
+      <c r="E74">
+        <v>167.8132</v>
+      </c>
+      <c r="F74">
+        <v>176.6232</v>
+      </c>
+      <c r="G74">
+        <v>12.8</v>
+      </c>
+      <c r="H74">
+        <v>236.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>19</v>
+      </c>
+      <c r="K74">
+        <v>15.6</v>
+      </c>
+      <c r="L74">
+        <v>3.4</v>
+      </c>
+      <c r="M74">
+        <v>32.44568184</v>
+      </c>
+      <c r="N74">
+        <v>-29.04568184</v>
+      </c>
+      <c r="O74">
+        <v>-10.165988644</v>
+      </c>
+      <c r="P74">
+        <v>-18.879693196</v>
+      </c>
+      <c r="Q74">
+        <v>-3.279693196000002</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2098592954680732</v>
+      </c>
+      <c r="T74">
+        <v>3.619351887184118</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.03667668338327021</v>
+      </c>
+      <c r="W74">
+        <v>0.1769624932624932</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.1047905239522006</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1879175978800557</v>
+      </c>
+      <c r="C75">
+        <v>-68.02148163136745</v>
+      </c>
+      <c r="D75">
+        <v>98.25481836863256</v>
+      </c>
+      <c r="E75">
+        <v>170.2663</v>
+      </c>
+      <c r="F75">
+        <v>179.0763</v>
+      </c>
+      <c r="G75">
+        <v>12.8</v>
+      </c>
+      <c r="H75">
+        <v>236.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>19</v>
+      </c>
+      <c r="K75">
+        <v>15.6</v>
+      </c>
+      <c r="L75">
+        <v>3.4</v>
+      </c>
+      <c r="M75">
+        <v>32.89631631</v>
+      </c>
+      <c r="N75">
+        <v>-29.49631631</v>
+      </c>
+      <c r="O75">
+        <v>-10.3237107085</v>
+      </c>
+      <c r="P75">
+        <v>-19.1726056015</v>
+      </c>
+      <c r="Q75">
+        <v>-3.572605601500003</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2172874175224463</v>
+      </c>
+      <c r="T75">
+        <v>3.753401957079825</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.03617426306295144</v>
+      </c>
+      <c r="W75">
+        <v>0.1770547878753358</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.1033550373227183</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1896615978800557</v>
+      </c>
+      <c r="C76">
+        <v>-71.28307552557378</v>
+      </c>
+      <c r="D76">
+        <v>97.44632447442623</v>
+      </c>
+      <c r="E76">
+        <v>172.7194</v>
+      </c>
+      <c r="F76">
+        <v>181.5294</v>
+      </c>
+      <c r="G76">
+        <v>12.8</v>
+      </c>
+      <c r="H76">
+        <v>236.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>19</v>
+      </c>
+      <c r="K76">
+        <v>15.6</v>
+      </c>
+      <c r="L76">
+        <v>3.4</v>
+      </c>
+      <c r="M76">
+        <v>33.34695078</v>
+      </c>
+      <c r="N76">
+        <v>-29.94695078</v>
+      </c>
+      <c r="O76">
+        <v>-10.481432773</v>
+      </c>
+      <c r="P76">
+        <v>-19.465518007</v>
+      </c>
+      <c r="Q76">
+        <v>-3.865518007</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.225286933581002</v>
+      </c>
+      <c r="T76">
+        <v>3.897763570813665</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.03568542167020886</v>
+      </c>
+      <c r="W76">
+        <v>0.1771445880391826</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.1019583476291681</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1914055978800557</v>
+      </c>
+      <c r="C77">
+        <v>-74.5314725588628</v>
+      </c>
+      <c r="D77">
+        <v>96.65102744113722</v>
+      </c>
+      <c r="E77">
+        <v>175.1725</v>
+      </c>
+      <c r="F77">
+        <v>183.9825</v>
+      </c>
+      <c r="G77">
+        <v>12.8</v>
+      </c>
+      <c r="H77">
+        <v>236.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>19</v>
+      </c>
+      <c r="K77">
+        <v>15.6</v>
+      </c>
+      <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>33.79758525</v>
+      </c>
+      <c r="N77">
+        <v>-30.39758525000001</v>
+      </c>
+      <c r="O77">
+        <v>-10.6391548375</v>
+      </c>
+      <c r="P77">
+        <v>-19.7584304125</v>
+      </c>
+      <c r="Q77">
+        <v>-4.158430412500005</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.233926410924242</v>
+      </c>
+      <c r="T77">
+        <v>4.053674113646212</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.0352096160479394</v>
+      </c>
+      <c r="W77">
+        <v>0.1772319935319935</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.1005989029941126</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1931495978800557</v>
+      </c>
+      <c r="C78">
+        <v>-77.76699322953789</v>
+      </c>
+      <c r="D78">
+        <v>95.86860677046211</v>
+      </c>
+      <c r="E78">
+        <v>177.6256</v>
+      </c>
+      <c r="F78">
+        <v>186.4356</v>
+      </c>
+      <c r="G78">
+        <v>12.8</v>
+      </c>
+      <c r="H78">
+        <v>236.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>19</v>
+      </c>
+      <c r="K78">
+        <v>15.6</v>
+      </c>
+      <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>34.24821972</v>
+      </c>
+      <c r="N78">
+        <v>-30.84821972</v>
+      </c>
+      <c r="O78">
+        <v>-10.796876902</v>
+      </c>
+      <c r="P78">
+        <v>-20.051342818</v>
+      </c>
+      <c r="Q78">
+        <v>-4.451342818000002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2432858447127521</v>
+      </c>
+      <c r="T78">
+        <v>4.222577201714804</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.03474633162625598</v>
+      </c>
+      <c r="W78">
+        <v>0.1773170988802568</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.09927523321787424</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1948935978800557</v>
+      </c>
+      <c r="C79">
+        <v>-80.98994774110099</v>
+      </c>
+      <c r="D79">
+        <v>95.09875225889901</v>
+      </c>
+      <c r="E79">
+        <v>180.0787</v>
+      </c>
+      <c r="F79">
+        <v>188.8887</v>
+      </c>
+      <c r="G79">
+        <v>12.8</v>
+      </c>
+      <c r="H79">
+        <v>236.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>19</v>
+      </c>
+      <c r="K79">
+        <v>15.6</v>
+      </c>
+      <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
+        <v>34.69885419</v>
+      </c>
+      <c r="N79">
+        <v>-31.29885419</v>
+      </c>
+      <c r="O79">
+        <v>-10.9545989665</v>
+      </c>
+      <c r="P79">
+        <v>-20.3442552235</v>
+      </c>
+      <c r="Q79">
+        <v>-4.7442552235</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2534591423089588</v>
+      </c>
+      <c r="T79">
+        <v>4.406167514832839</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.03429508056617474</v>
+      </c>
+      <c r="W79">
+        <v>0.1773999936999937</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.09798594447478493</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1966375978800557</v>
+      </c>
+      <c r="C80">
+        <v>-84.20063641231215</v>
+      </c>
+      <c r="D80">
+        <v>94.34116358768786</v>
+      </c>
+      <c r="E80">
+        <v>182.5318</v>
+      </c>
+      <c r="F80">
+        <v>191.3418</v>
+      </c>
+      <c r="G80">
+        <v>12.8</v>
+      </c>
+      <c r="H80">
+        <v>236.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>15.6</v>
+      </c>
+      <c r="L80">
+        <v>3.4</v>
+      </c>
+      <c r="M80">
+        <v>35.14948866</v>
+      </c>
+      <c r="N80">
+        <v>-31.74948866</v>
+      </c>
+      <c r="O80">
+        <v>-11.112321031</v>
+      </c>
+      <c r="P80">
+        <v>-20.637167629</v>
+      </c>
+      <c r="Q80">
+        <v>-5.037167629000004</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2645572851411842</v>
+      </c>
+      <c r="T80">
+        <v>4.606447856416151</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.03385540004609558</v>
+      </c>
+      <c r="W80">
+        <v>0.1774807630115323</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.09672971441741585</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1983815978800557</v>
+      </c>
+      <c r="C81">
+        <v>-87.39935006780331</v>
+      </c>
+      <c r="D81">
+        <v>93.5955499321967</v>
+      </c>
+      <c r="E81">
+        <v>184.9849</v>
+      </c>
+      <c r="F81">
+        <v>193.7949</v>
+      </c>
+      <c r="G81">
+        <v>12.8</v>
+      </c>
+      <c r="H81">
+        <v>236.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>19</v>
+      </c>
+      <c r="K81">
+        <v>15.6</v>
+      </c>
+      <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81">
+        <v>35.60012313</v>
+      </c>
+      <c r="N81">
+        <v>-32.20012313</v>
+      </c>
+      <c r="O81">
+        <v>-11.2700430955</v>
+      </c>
+      <c r="P81">
+        <v>-20.9300800345</v>
+      </c>
+      <c r="Q81">
+        <v>-5.330080034500002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2767123939574311</v>
+      </c>
+      <c r="T81">
+        <v>4.825802516245492</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.03342685067842349</v>
+      </c>
+      <c r="W81">
+        <v>0.1775594875303736</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.09550528765263844</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2001255978800557</v>
+      </c>
+      <c r="C82">
+        <v>-90.58637041031508</v>
+      </c>
+      <c r="D82">
+        <v>92.86162958968494</v>
+      </c>
+      <c r="E82">
+        <v>187.438</v>
+      </c>
+      <c r="F82">
+        <v>196.248</v>
+      </c>
+      <c r="G82">
+        <v>12.8</v>
+      </c>
+      <c r="H82">
+        <v>236.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>19</v>
+      </c>
+      <c r="K82">
+        <v>15.6</v>
+      </c>
+      <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>36.0507576</v>
+      </c>
+      <c r="N82">
+        <v>-32.65075760000001</v>
+      </c>
+      <c r="O82">
+        <v>-11.42776516</v>
+      </c>
+      <c r="P82">
+        <v>-21.22299244000001</v>
+      </c>
+      <c r="Q82">
+        <v>-5.622992440000006</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2900830136553026</v>
+      </c>
+      <c r="T82">
+        <v>5.067092642057766</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.03300901504494318</v>
+      </c>
+      <c r="W82">
+        <v>0.1776362439362439</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.0943114715569805</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2018695978800557</v>
+      </c>
+      <c r="C83">
+        <v>-93.76197037555588</v>
+      </c>
+      <c r="D83">
+        <v>92.13912962444415</v>
+      </c>
+      <c r="E83">
+        <v>189.8911</v>
+      </c>
+      <c r="F83">
+        <v>198.7011</v>
+      </c>
+      <c r="G83">
+        <v>12.8</v>
+      </c>
+      <c r="H83">
+        <v>236.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>19</v>
+      </c>
+      <c r="K83">
+        <v>15.6</v>
+      </c>
+      <c r="L83">
+        <v>3.4</v>
+      </c>
+      <c r="M83">
+        <v>36.50139207000001</v>
+      </c>
+      <c r="N83">
+        <v>-33.10139207000001</v>
+      </c>
+      <c r="O83">
+        <v>-11.5854872245</v>
+      </c>
+      <c r="P83">
+        <v>-21.51590484550001</v>
+      </c>
+      <c r="Q83">
+        <v>-5.915904845500007</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3048610670055817</v>
+      </c>
+      <c r="T83">
+        <v>5.333781728481859</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.03260149634068463</v>
+      </c>
+      <c r="W83">
+        <v>0.1777111051222162</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.09314713240195605</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2036135978800556</v>
+      </c>
+      <c r="C84">
+        <v>-96.92641447062393</v>
+      </c>
+      <c r="D84">
+        <v>91.42778552937608</v>
+      </c>
+      <c r="E84">
+        <v>192.3442</v>
+      </c>
+      <c r="F84">
+        <v>201.1542</v>
+      </c>
+      <c r="G84">
+        <v>12.8</v>
+      </c>
+      <c r="H84">
+        <v>236.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>19</v>
+      </c>
+      <c r="K84">
+        <v>15.6</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>36.95202654</v>
+      </c>
+      <c r="N84">
+        <v>-33.55202654</v>
+      </c>
+      <c r="O84">
+        <v>-11.743209289</v>
+      </c>
+      <c r="P84">
+        <v>-21.808817251</v>
+      </c>
+      <c r="Q84">
+        <v>-6.208817251000001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3212811262836696</v>
+      </c>
+      <c r="T84">
+        <v>5.630102935619741</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.03220391711701775</v>
+      </c>
+      <c r="W84">
+        <v>0.1777841404256038</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.09201119176290784</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2053575978800556</v>
+      </c>
+      <c r="C85">
+        <v>-100.0799590968725</v>
+      </c>
+      <c r="D85">
+        <v>90.7273409031275</v>
+      </c>
+      <c r="E85">
+        <v>194.7973</v>
+      </c>
+      <c r="F85">
+        <v>203.6073</v>
+      </c>
+      <c r="G85">
+        <v>12.8</v>
+      </c>
+      <c r="H85">
+        <v>236.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>19</v>
+      </c>
+      <c r="K85">
+        <v>15.6</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>37.40266101</v>
+      </c>
+      <c r="N85">
+        <v>-34.00266101</v>
+      </c>
+      <c r="O85">
+        <v>-11.9009313535</v>
+      </c>
+      <c r="P85">
+        <v>-22.10172965650001</v>
+      </c>
+      <c r="Q85">
+        <v>-6.501729656500006</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3396329572415325</v>
+      </c>
+      <c r="T85">
+        <v>5.961285461244431</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.03181591811560789</v>
+      </c>
+      <c r="W85">
+        <v>0.1778554158421628</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.09090262318745113</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2071015978800556</v>
+      </c>
+      <c r="C86">
+        <v>-103.2228528580472</v>
+      </c>
+      <c r="D86">
+        <v>90.03754714195276</v>
+      </c>
+      <c r="E86">
+        <v>197.2504</v>
+      </c>
+      <c r="F86">
+        <v>206.0604</v>
+      </c>
+      <c r="G86">
+        <v>12.8</v>
+      </c>
+      <c r="H86">
+        <v>236.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>19</v>
+      </c>
+      <c r="K86">
+        <v>15.6</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>37.85329548</v>
+      </c>
+      <c r="N86">
+        <v>-34.45329548</v>
+      </c>
+      <c r="O86">
+        <v>-12.058653418</v>
+      </c>
+      <c r="P86">
+        <v>-22.394642062</v>
+      </c>
+      <c r="Q86">
+        <v>-6.794642062000003</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3602787670691281</v>
+      </c>
+      <c r="T86">
+        <v>6.333865802572205</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.03143715718566018</v>
+      </c>
+      <c r="W86">
+        <v>0.1779249942249942</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.08982044910188614</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2088455978800556</v>
+      </c>
+      <c r="C87">
+        <v>-106.3553368544727</v>
+      </c>
+      <c r="D87">
+        <v>89.35816314552734</v>
+      </c>
+      <c r="E87">
+        <v>199.7035</v>
+      </c>
+      <c r="F87">
+        <v>208.5135</v>
+      </c>
+      <c r="G87">
+        <v>12.8</v>
+      </c>
+      <c r="H87">
+        <v>236.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>19</v>
+      </c>
+      <c r="K87">
+        <v>15.6</v>
+      </c>
+      <c r="L87">
+        <v>3.4</v>
+      </c>
+      <c r="M87">
+        <v>38.30392995</v>
+      </c>
+      <c r="N87">
+        <v>-34.90392995</v>
+      </c>
+      <c r="O87">
+        <v>-12.2163754825</v>
+      </c>
+      <c r="P87">
+        <v>-22.6875544675</v>
+      </c>
+      <c r="Q87">
+        <v>-7.0875544675</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3836773515404033</v>
+      </c>
+      <c r="T87">
+        <v>6.756123522743685</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0310673082775936</v>
+      </c>
+      <c r="W87">
+        <v>0.1779929354694061</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.08876373793598169</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2105895978800556</v>
+      </c>
+      <c r="C88">
+        <v>-109.47764496402</v>
+      </c>
+      <c r="D88">
+        <v>88.68895503598004</v>
+      </c>
+      <c r="E88">
+        <v>202.1566</v>
+      </c>
+      <c r="F88">
+        <v>210.9666</v>
+      </c>
+      <c r="G88">
+        <v>12.8</v>
+      </c>
+      <c r="H88">
+        <v>236.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>19</v>
+      </c>
+      <c r="K88">
+        <v>15.6</v>
+      </c>
+      <c r="L88">
+        <v>3.4</v>
+      </c>
+      <c r="M88">
+        <v>38.75456442</v>
+      </c>
+      <c r="N88">
+        <v>-35.35456442</v>
+      </c>
+      <c r="O88">
+        <v>-12.374097547</v>
+      </c>
+      <c r="P88">
+        <v>-22.980466873</v>
+      </c>
+      <c r="Q88">
+        <v>-7.380466873000005</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4104185909361464</v>
+      </c>
+      <c r="T88">
+        <v>7.238703774368234</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0307060605069239</v>
+      </c>
+      <c r="W88">
+        <v>0.1780592966848781</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.0877316014483539</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2123335978800557</v>
+      </c>
+      <c r="C89">
+        <v>-112.5900041105432</v>
+      </c>
+      <c r="D89">
+        <v>88.02969588945678</v>
+      </c>
+      <c r="E89">
+        <v>204.6097</v>
+      </c>
+      <c r="F89">
+        <v>213.4197</v>
+      </c>
+      <c r="G89">
+        <v>12.8</v>
+      </c>
+      <c r="H89">
+        <v>236.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>19</v>
+      </c>
+      <c r="K89">
+        <v>15.6</v>
+      </c>
+      <c r="L89">
+        <v>3.4</v>
+      </c>
+      <c r="M89">
+        <v>39.20519889</v>
+      </c>
+      <c r="N89">
+        <v>-35.80519889</v>
+      </c>
+      <c r="O89">
+        <v>-12.5318196115</v>
+      </c>
+      <c r="P89">
+        <v>-23.2733792785</v>
+      </c>
+      <c r="Q89">
+        <v>-7.673379278500002</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4412738671620038</v>
+      </c>
+      <c r="T89">
+        <v>7.795527141627329</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.03035311728270638</v>
+      </c>
+      <c r="W89">
+        <v>0.1781241323551668</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.08672319223630387</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2140775978800556</v>
+      </c>
+      <c r="C90">
+        <v>-115.6926345204319</v>
+      </c>
+      <c r="D90">
+        <v>87.38016547956812</v>
+      </c>
+      <c r="E90">
+        <v>207.0628</v>
+      </c>
+      <c r="F90">
+        <v>215.8728</v>
+      </c>
+      <c r="G90">
+        <v>12.8</v>
+      </c>
+      <c r="H90">
+        <v>236.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>19</v>
+      </c>
+      <c r="K90">
+        <v>15.6</v>
+      </c>
+      <c r="L90">
+        <v>3.4</v>
+      </c>
+      <c r="M90">
+        <v>39.65583336</v>
+      </c>
+      <c r="N90">
+        <v>-36.25583336</v>
+      </c>
+      <c r="O90">
+        <v>-12.689541676</v>
+      </c>
+      <c r="P90">
+        <v>-23.566291684</v>
+      </c>
+      <c r="Q90">
+        <v>-7.966291684000003</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4772716894255042</v>
+      </c>
+      <c r="T90">
+        <v>8.445154403429608</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0300081954954029</v>
+      </c>
+      <c r="W90">
+        <v>0.1781874944874945</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.0857377014154368</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2158215978800557</v>
+      </c>
+      <c r="C91">
+        <v>-118.7857499678885</v>
+      </c>
+      <c r="D91">
+        <v>86.74015003211147</v>
+      </c>
+      <c r="E91">
+        <v>209.5159</v>
+      </c>
+      <c r="F91">
+        <v>218.3259</v>
+      </c>
+      <c r="G91">
+        <v>12.8</v>
+      </c>
+      <c r="H91">
+        <v>236.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>19</v>
+      </c>
+      <c r="K91">
+        <v>15.6</v>
+      </c>
+      <c r="L91">
+        <v>3.4</v>
+      </c>
+      <c r="M91">
+        <v>40.10646783000001</v>
+      </c>
+      <c r="N91">
+        <v>-36.70646783000001</v>
+      </c>
+      <c r="O91">
+        <v>-12.8472637405</v>
+      </c>
+      <c r="P91">
+        <v>-23.8592040895</v>
+      </c>
+      <c r="Q91">
+        <v>-8.259204089500004</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5198145702823683</v>
+      </c>
+      <c r="T91">
+        <v>9.212895712832301</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.02967102475949949</v>
+      </c>
+      <c r="W91">
+        <v>0.17824943275168</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.08477435645571274</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2175655978800557</v>
+      </c>
+      <c r="C92">
+        <v>-121.8695580095056</v>
+      </c>
+      <c r="D92">
+        <v>86.10944199049443</v>
+      </c>
+      <c r="E92">
+        <v>211.969</v>
+      </c>
+      <c r="F92">
+        <v>220.779</v>
+      </c>
+      <c r="G92">
+        <v>12.8</v>
+      </c>
+      <c r="H92">
+        <v>236.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>19</v>
+      </c>
+      <c r="K92">
+        <v>15.6</v>
+      </c>
+      <c r="L92">
+        <v>3.4</v>
+      </c>
+      <c r="M92">
+        <v>40.5571023</v>
+      </c>
+      <c r="N92">
+        <v>-37.1571023</v>
+      </c>
+      <c r="O92">
+        <v>-13.004985805</v>
+      </c>
+      <c r="P92">
+        <v>-24.152116495</v>
+      </c>
+      <c r="Q92">
+        <v>-8.552116495000002</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5708660273106052</v>
+      </c>
+      <c r="T92">
+        <v>10.13418528411553</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.02934134670661617</v>
+      </c>
+      <c r="W92">
+        <v>0.1783099946099946</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.08383241916176043</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2193095978800557</v>
+      </c>
+      <c r="C93">
+        <v>-124.9442602086819</v>
+      </c>
+      <c r="D93">
+        <v>85.48783979131807</v>
+      </c>
+      <c r="E93">
+        <v>214.4221</v>
+      </c>
+      <c r="F93">
+        <v>223.2321</v>
+      </c>
+      <c r="G93">
+        <v>12.8</v>
+      </c>
+      <c r="H93">
+        <v>236.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>19</v>
+      </c>
+      <c r="K93">
+        <v>15.6</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>41.00773677</v>
+      </c>
+      <c r="N93">
+        <v>-37.60773677</v>
+      </c>
+      <c r="O93">
+        <v>-13.1627078695</v>
+      </c>
+      <c r="P93">
+        <v>-24.4450289005</v>
+      </c>
+      <c r="Q93">
+        <v>-8.845028900500003</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6332622525673391</v>
+      </c>
+      <c r="T93">
+        <v>11.26020587123948</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.02901891432522478</v>
+      </c>
+      <c r="W93">
+        <v>0.1783692254384562</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.08291118378635653</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2210535978800557</v>
+      </c>
+      <c r="C94">
+        <v>-128.0100523503897</v>
+      </c>
+      <c r="D94">
+        <v>84.87514764961026</v>
+      </c>
+      <c r="E94">
+        <v>216.8752</v>
+      </c>
+      <c r="F94">
+        <v>225.6852</v>
+      </c>
+      <c r="G94">
+        <v>12.8</v>
+      </c>
+      <c r="H94">
+        <v>236.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>19</v>
+      </c>
+      <c r="K94">
+        <v>15.6</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>41.45837124000001</v>
+      </c>
+      <c r="N94">
+        <v>-38.05837124000001</v>
+      </c>
+      <c r="O94">
+        <v>-13.320429934</v>
+      </c>
+      <c r="P94">
+        <v>-24.737941306</v>
+      </c>
+      <c r="Q94">
+        <v>-9.137941306000004</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7112575341382567</v>
+      </c>
+      <c r="T94">
+        <v>12.66773160514442</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.02870349134342886</v>
+      </c>
+      <c r="W94">
+        <v>0.1784271686402121</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.08200997526693954</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2227975978800557</v>
+      </c>
+      <c r="C95">
+        <v>-131.0671246467707</v>
+      </c>
+      <c r="D95">
+        <v>84.27117535322938</v>
+      </c>
+      <c r="E95">
+        <v>219.3283</v>
+      </c>
+      <c r="F95">
+        <v>228.1383</v>
+      </c>
+      <c r="G95">
+        <v>12.8</v>
+      </c>
+      <c r="H95">
+        <v>236.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>19</v>
+      </c>
+      <c r="K95">
+        <v>15.6</v>
+      </c>
+      <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>41.90900571</v>
+      </c>
+      <c r="N95">
+        <v>-38.50900571</v>
+      </c>
+      <c r="O95">
+        <v>-13.4781519985</v>
+      </c>
+      <c r="P95">
+        <v>-25.0308537115</v>
+      </c>
+      <c r="Q95">
+        <v>-9.430853711500001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8115371818722934</v>
+      </c>
+      <c r="T95">
+        <v>14.47740754873648</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.02839485165156403</v>
+      </c>
+      <c r="W95">
+        <v>0.1784838657516077</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.08112814757589715</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2245415978800556</v>
+      </c>
+      <c r="C96">
+        <v>-134.1156619340165</v>
+      </c>
+      <c r="D96">
+        <v>83.6757380659835</v>
+      </c>
+      <c r="E96">
+        <v>221.7814</v>
+      </c>
+      <c r="F96">
+        <v>230.5914</v>
+      </c>
+      <c r="G96">
+        <v>12.8</v>
+      </c>
+      <c r="H96">
+        <v>236.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>19</v>
+      </c>
+      <c r="K96">
+        <v>15.6</v>
+      </c>
+      <c r="L96">
+        <v>3.4</v>
+      </c>
+      <c r="M96">
+        <v>42.35964018000001</v>
+      </c>
+      <c r="N96">
+        <v>-38.95964018000001</v>
+      </c>
+      <c r="O96">
+        <v>-13.635874063</v>
+      </c>
+      <c r="P96">
+        <v>-25.32376611700001</v>
+      </c>
+      <c r="Q96">
+        <v>-9.723766117000006</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9452433788510093</v>
+      </c>
+      <c r="T96">
+        <v>16.89030880685923</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.02809277876165377</v>
+      </c>
+      <c r="W96">
+        <v>0.1785393565414842</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.08026508217615358</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2262855978800557</v>
+      </c>
+      <c r="C97">
+        <v>-137.155843860962</v>
+      </c>
+      <c r="D97">
+        <v>83.08865613903801</v>
+      </c>
+      <c r="E97">
+        <v>224.2345</v>
+      </c>
+      <c r="F97">
+        <v>233.0445</v>
+      </c>
+      <c r="G97">
+        <v>12.8</v>
+      </c>
+      <c r="H97">
+        <v>236.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>19</v>
+      </c>
+      <c r="K97">
+        <v>15.6</v>
+      </c>
+      <c r="L97">
+        <v>3.4</v>
+      </c>
+      <c r="M97">
+        <v>42.81027465</v>
+      </c>
+      <c r="N97">
+        <v>-39.41027465000001</v>
+      </c>
+      <c r="O97">
+        <v>-13.7935961275</v>
+      </c>
+      <c r="P97">
+        <v>-25.6166785225</v>
+      </c>
+      <c r="Q97">
+        <v>-10.0166785225</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.132432054621212</v>
+      </c>
+      <c r="T97">
+        <v>20.26837056823109</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.02779706530100479</v>
+      </c>
+      <c r="W97">
+        <v>0.1785936791042054</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.07942018657429939</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2280295978800557</v>
+      </c>
+      <c r="C98">
+        <v>-140.187845069793</v>
+      </c>
+      <c r="D98">
+        <v>82.50975493020702</v>
+      </c>
+      <c r="E98">
+        <v>226.6876</v>
+      </c>
+      <c r="F98">
+        <v>235.4976</v>
+      </c>
+      <c r="G98">
+        <v>12.8</v>
+      </c>
+      <c r="H98">
+        <v>236.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>19</v>
+      </c>
+      <c r="K98">
+        <v>15.6</v>
+      </c>
+      <c r="L98">
+        <v>3.4</v>
+      </c>
+      <c r="M98">
+        <v>43.26090912</v>
+      </c>
+      <c r="N98">
+        <v>-39.86090912</v>
+      </c>
+      <c r="O98">
+        <v>-13.951318192</v>
+      </c>
+      <c r="P98">
+        <v>-25.909590928</v>
+      </c>
+      <c r="Q98">
+        <v>-10.309590928</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.413215068276512</v>
+      </c>
+      <c r="T98">
+        <v>25.3354632102888</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.02750751253745266</v>
+      </c>
+      <c r="W98">
+        <v>0.17864686994687</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.0785928929641504</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2297735978800557</v>
+      </c>
+      <c r="C99">
+        <v>-143.2118353692534</v>
+      </c>
+      <c r="D99">
+        <v>81.93886463074654</v>
+      </c>
+      <c r="E99">
+        <v>229.1407</v>
+      </c>
+      <c r="F99">
+        <v>237.9507</v>
+      </c>
+      <c r="G99">
+        <v>12.8</v>
+      </c>
+      <c r="H99">
+        <v>236.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>19</v>
+      </c>
+      <c r="K99">
+        <v>15.6</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>43.71154359</v>
+      </c>
+      <c r="N99">
+        <v>-40.31154359</v>
+      </c>
+      <c r="O99">
+        <v>-14.1090402565</v>
+      </c>
+      <c r="P99">
+        <v>-26.2025033335</v>
+      </c>
+      <c r="Q99">
+        <v>-10.6025033335</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.881186757702016</v>
+      </c>
+      <c r="T99">
+        <v>33.78061761371841</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.02722392993397377</v>
+      </c>
+      <c r="W99">
+        <v>0.178698964071129</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.07778265695421072</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2315175978800557</v>
+      </c>
+      <c r="C100">
+        <v>-146.2279799007106</v>
+      </c>
+      <c r="D100">
+        <v>81.37582009928944</v>
+      </c>
+      <c r="E100">
+        <v>231.5938</v>
+      </c>
+      <c r="F100">
+        <v>240.4038</v>
+      </c>
+      <c r="G100">
+        <v>12.8</v>
+      </c>
+      <c r="H100">
+        <v>236.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>19</v>
+      </c>
+      <c r="K100">
+        <v>15.6</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>44.16217806</v>
+      </c>
+      <c r="N100">
+        <v>-40.76217806</v>
+      </c>
+      <c r="O100">
+        <v>-14.266762321</v>
+      </c>
+      <c r="P100">
+        <v>-26.495415739</v>
+      </c>
+      <c r="Q100">
+        <v>-10.895415739</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.817130136553023</v>
+      </c>
+      <c r="T100">
+        <v>50.67092642057761</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.02694613473056587</v>
+      </c>
+      <c r="W100">
+        <v>0.1787499950499951</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.07698895637304537</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2332615978800557</v>
+      </c>
+      <c r="C101">
+        <v>-149.2364392974206</v>
+      </c>
+      <c r="D101">
+        <v>80.82046070257942</v>
+      </c>
+      <c r="E101">
+        <v>234.0469</v>
+      </c>
+      <c r="F101">
+        <v>242.8569</v>
+      </c>
+      <c r="G101">
+        <v>12.8</v>
+      </c>
+      <c r="H101">
+        <v>236.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>19</v>
+      </c>
+      <c r="K101">
+        <v>15.6</v>
+      </c>
+      <c r="L101">
+        <v>3.4</v>
+      </c>
+      <c r="M101">
+        <v>44.61281253</v>
+      </c>
+      <c r="N101">
+        <v>-41.21281253</v>
+      </c>
+      <c r="O101">
+        <v>-14.4244843855</v>
+      </c>
+      <c r="P101">
+        <v>-26.7883281445</v>
+      </c>
+      <c r="Q101">
+        <v>-11.1883281445</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.624960273106046</v>
+      </c>
+      <c r="T101">
+        <v>101.3418528411552</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.02667395155146925</v>
+      </c>
+      <c r="W101">
+        <v>0.1787999950999951</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.07621129014705497</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
